--- a/raw_data/20200818_saline/20200818_Sensor2_Test_35.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_35.xlsx
@@ -1,1671 +1,2087 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A29285-B924-4B65-8210-E2B2E37B5AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>30971.087310</v>
+        <v>30971.087309999999</v>
       </c>
       <c r="B2" s="1">
-        <v>8.603080</v>
+        <v>8.6030800000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>1248.140000</v>
+        <v>1248.1400000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-308.597000</v>
+        <v>-308.59699999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>30981.842559</v>
+        <v>30981.842559000001</v>
       </c>
       <c r="G2" s="1">
-        <v>8.606067</v>
+        <v>8.6060669999999995</v>
       </c>
       <c r="H2" s="1">
-        <v>1273.470000</v>
+        <v>1273.47</v>
       </c>
       <c r="I2" s="1">
-        <v>-265.967000</v>
+        <v>-265.96699999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>30992.293266</v>
+        <v>30992.293266000001</v>
       </c>
       <c r="L2" s="1">
-        <v>8.608970</v>
+        <v>8.6089699999999993</v>
       </c>
       <c r="M2" s="1">
-        <v>1308.920000</v>
+        <v>1308.92</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.504000</v>
+        <v>-203.50399999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>31002.789604</v>
+        <v>31002.789604000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.611886</v>
+        <v>8.6118860000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1320.460000</v>
+        <v>1320.46</v>
       </c>
       <c r="S2" s="1">
-        <v>-185.081000</v>
+        <v>-185.08099999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>31013.695143</v>
+        <v>31013.695143000001</v>
       </c>
       <c r="V2" s="1">
-        <v>8.614915</v>
+        <v>8.6149149999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1333.720000</v>
+        <v>1333.72</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.250000</v>
+        <v>-171.25</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>31023.941000</v>
+        <v>31023.940999999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.617761</v>
+        <v>8.6177609999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1350.500000</v>
+        <v>1350.5</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.055000</v>
+        <v>-169.05500000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>31034.208219</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.620613</v>
+        <v>8.6206130000000005</v>
       </c>
       <c r="AG2" s="1">
-        <v>1363.560000</v>
+        <v>1363.56</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.613000</v>
+        <v>-178.613</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>31044.277469</v>
+        <v>31044.277469000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.623410</v>
+        <v>8.6234099999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1384.050000</v>
+        <v>1384.05</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.495000</v>
+        <v>-208.495</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>31054.536223</v>
+        <v>31054.536222999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.626260</v>
+        <v>8.6262600000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1405.620000</v>
+        <v>1405.62</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.303000</v>
+        <v>-252.303</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>31065.199750</v>
+        <v>31065.19975</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.629222</v>
+        <v>8.6292220000000004</v>
       </c>
       <c r="AV2" s="1">
-        <v>1430.060000</v>
+        <v>1430.06</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.320000</v>
+        <v>-312.32</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>31075.887052</v>
+        <v>31075.887051999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.632191</v>
+        <v>8.6321910000000006</v>
       </c>
       <c r="BA2" s="1">
-        <v>1449.270000</v>
+        <v>1449.27</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.498000</v>
+        <v>-364.49799999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>31086.860501</v>
+        <v>31086.860500999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.635239</v>
+        <v>8.6352390000000003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1534.260000</v>
+        <v>1534.26</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.154000</v>
+        <v>-613.154</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>31097.561988</v>
+        <v>31097.561988000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.638212</v>
+        <v>8.6382119999999993</v>
       </c>
       <c r="BK2" s="1">
-        <v>1688.050000</v>
+        <v>1688.05</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1059.400000</v>
+        <v>-1059.4000000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>31108.658680</v>
+        <v>31108.65868</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.641294</v>
+        <v>8.6412940000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1982.130000</v>
+        <v>1982.13</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1832.960000</v>
+        <v>-1832.96</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>31118.992332</v>
+        <v>31118.992332000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.644165</v>
+        <v>8.6441649999999992</v>
       </c>
       <c r="BU2" s="1">
-        <v>2371.610000</v>
+        <v>2371.61</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2726.140000</v>
+        <v>-2726.14</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>31129.627581</v>
+        <v>31129.627581000001</v>
       </c>
       <c r="BY2" s="1">
         <v>8.647119</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2852.400000</v>
+        <v>2852.4</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3704.970000</v>
+        <v>-3704.97</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>31140.815805</v>
+        <v>31140.815804999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.650227</v>
+        <v>8.6502269999999992</v>
       </c>
       <c r="CE2" s="1">
-        <v>4280.740000</v>
+        <v>4280.74</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6069.940000</v>
+        <v>-6069.94</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>30971.470719</v>
+        <v>30971.470719000001</v>
       </c>
       <c r="B3" s="1">
-        <v>8.603186</v>
+        <v>8.6031860000000009</v>
       </c>
       <c r="C3" s="1">
-        <v>1247.870000</v>
+        <v>1247.8699999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-309.054000</v>
+        <v>-309.05399999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>30982.210610</v>
+        <v>30982.210609999998</v>
       </c>
       <c r="G3" s="1">
-        <v>8.606170</v>
+        <v>8.6061700000000005</v>
       </c>
       <c r="H3" s="1">
-        <v>1273.860000</v>
+        <v>1273.8599999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.636000</v>
+        <v>-266.63600000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>30992.985185</v>
+        <v>30992.985185000001</v>
       </c>
       <c r="L3" s="1">
-        <v>8.609163</v>
+        <v>8.6091630000000006</v>
       </c>
       <c r="M3" s="1">
-        <v>1308.850000</v>
+        <v>1308.8499999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.534000</v>
+        <v>-203.53399999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>31003.490947</v>
+        <v>31003.490946999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.612081</v>
+        <v>8.6120809999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1320.560000</v>
+        <v>1320.56</v>
       </c>
       <c r="S3" s="1">
-        <v>-185.020000</v>
+        <v>-185.02</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>31014.102853</v>
       </c>
       <c r="V3" s="1">
-        <v>8.615029</v>
+        <v>8.6150289999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>1333.590000</v>
+        <v>1333.59</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.489000</v>
+        <v>-171.489</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>31024.290679</v>
+        <v>31024.290679000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.617859</v>
+        <v>8.6178589999999993</v>
       </c>
       <c r="AB3" s="1">
-        <v>1350.800000</v>
+        <v>1350.8</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.028000</v>
+        <v>-169.02799999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>31034.554923</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.620710</v>
+        <v>8.6207100000000008</v>
       </c>
       <c r="AG3" s="1">
-        <v>1363.530000</v>
+        <v>1363.53</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.612000</v>
+        <v>-178.61199999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>31044.664349</v>
+        <v>31044.664348999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.623518</v>
+        <v>8.6235180000000007</v>
       </c>
       <c r="AL3" s="1">
-        <v>1384.060000</v>
+        <v>1384.06</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.470000</v>
+        <v>-208.47</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>31054.929057</v>
+        <v>31054.929057000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.626369</v>
+        <v>8.6263690000000004</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1405.620000</v>
+        <v>1405.62</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.291000</v>
+        <v>-252.291</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>31065.634209</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.629343</v>
+        <v>8.6293430000000004</v>
       </c>
       <c r="AV3" s="1">
-        <v>1430.100000</v>
+        <v>1430.1</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.295000</v>
+        <v>-312.29500000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>31076.326963</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.632313</v>
+        <v>8.6323129999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1449.300000</v>
+        <v>1449.3</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.551000</v>
+        <v>-364.55099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>31086.970614</v>
+        <v>31086.970614000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.635270</v>
+        <v>8.6352700000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1534.260000</v>
+        <v>1534.26</v>
       </c>
       <c r="BG3" s="1">
-        <v>-613.136000</v>
+        <v>-613.13599999999997</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>31097.938655</v>
+        <v>31097.938655000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.638316</v>
+        <v>8.6383159999999997</v>
       </c>
       <c r="BK3" s="1">
-        <v>1688.020000</v>
+        <v>1688.02</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1059.390000</v>
+        <v>-1059.3900000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>31109.078297</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.641411</v>
+        <v>8.6414109999999997</v>
       </c>
       <c r="BP3" s="1">
-        <v>1982.010000</v>
+        <v>1982.01</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1833.290000</v>
+        <v>-1833.29</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>31119.506187</v>
+        <v>31119.506186999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.644307</v>
+        <v>8.6443069999999995</v>
       </c>
       <c r="BU3" s="1">
-        <v>2371.040000</v>
+        <v>2371.04</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2726.260000</v>
+        <v>-2726.26</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>31130.091805</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.647248</v>
+        <v>8.6472479999999994</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2851.980000</v>
+        <v>2851.98</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3704.730000</v>
+        <v>-3704.73</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>31141.352013</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.650376</v>
+        <v>8.6503759999999996</v>
       </c>
       <c r="CE3" s="1">
-        <v>4268.590000</v>
+        <v>4268.59</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6053.110000</v>
+        <v>-6053.11</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>30971.813453</v>
+        <v>30971.813452999999</v>
       </c>
       <c r="B4" s="1">
-        <v>8.603282</v>
+        <v>8.6032820000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1248.090000</v>
+        <v>1248.0899999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-308.607000</v>
+        <v>-308.60700000000003</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>30982.862830</v>
+        <v>30982.862829999998</v>
       </c>
       <c r="G4" s="1">
-        <v>8.606351</v>
+        <v>8.6063510000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.110000</v>
+        <v>1273.1099999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-265.718000</v>
+        <v>-265.71800000000002</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>30993.356720</v>
+        <v>30993.35672</v>
       </c>
       <c r="L4" s="1">
-        <v>8.609266</v>
+        <v>8.6092659999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1308.850000</v>
+        <v>1308.8499999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.664000</v>
+        <v>-203.66399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>31003.879347</v>
+        <v>31003.879346999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.612189</v>
+        <v>8.6121890000000008</v>
       </c>
       <c r="R4" s="1">
-        <v>1320.570000</v>
+        <v>1320.57</v>
       </c>
       <c r="S4" s="1">
-        <v>-185.137000</v>
+        <v>-185.137</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>31014.446084</v>
+        <v>31014.446083999999</v>
       </c>
       <c r="V4" s="1">
-        <v>8.615124</v>
+        <v>8.6151239999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>1333.580000</v>
+        <v>1333.58</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.232000</v>
+        <v>-171.232</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>31024.640360</v>
+        <v>31024.640360000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.617956</v>
+        <v>8.6179559999999995</v>
       </c>
       <c r="AB4" s="1">
-        <v>1350.670000</v>
+        <v>1350.67</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.017000</v>
+        <v>-169.017</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>31034.898123</v>
+        <v>31034.898122999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.620805</v>
+        <v>8.6208050000000007</v>
       </c>
       <c r="AG4" s="1">
-        <v>1363.570000</v>
+        <v>1363.57</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.654000</v>
+        <v>-178.654</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>31045.084957</v>
+        <v>31045.084956999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.623635</v>
+        <v>8.6236350000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1384.090000</v>
+        <v>1384.09</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.469000</v>
+        <v>-208.46899999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>31055.363055</v>
+        <v>31055.363055000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.626490</v>
+        <v>8.6264900000000004</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1405.630000</v>
+        <v>1405.63</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.319000</v>
+        <v>-252.31899999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>31065.954626</v>
+        <v>31065.954625999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.629432</v>
+        <v>8.6294319999999995</v>
       </c>
       <c r="AV4" s="1">
-        <v>1430.060000</v>
+        <v>1430.06</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.311000</v>
+        <v>-312.31099999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>31076.687091</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.632413</v>
+        <v>8.6324129999999997</v>
       </c>
       <c r="BA4" s="1">
-        <v>1449.300000</v>
+        <v>1449.3</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.468000</v>
+        <v>-364.46800000000002</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>31087.328724</v>
+        <v>31087.328723999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.635369</v>
+        <v>8.6353690000000007</v>
       </c>
       <c r="BF4" s="1">
-        <v>1534.240000</v>
+        <v>1534.24</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.128000</v>
+        <v>-613.12800000000004</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>31098.315142</v>
+        <v>31098.315141999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>8.638421</v>
+        <v>8.6384209999999992</v>
       </c>
       <c r="BK4" s="1">
-        <v>1688.030000</v>
+        <v>1688.03</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1059.490000</v>
+        <v>-1059.49</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>31109.502377</v>
+        <v>31109.502377000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.641528</v>
+        <v>8.6415279999999992</v>
       </c>
       <c r="BP4" s="1">
-        <v>1981.760000</v>
+        <v>1981.76</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1833.370000</v>
+        <v>-1833.37</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>31119.937209</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.644427</v>
+        <v>8.6444270000000003</v>
       </c>
       <c r="BU4" s="1">
-        <v>2370.900000</v>
+        <v>2370.9</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2725.960000</v>
+        <v>-2725.96</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>31130.540684</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.647372</v>
+        <v>8.6473720000000007</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2851.620000</v>
+        <v>2851.62</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3705.210000</v>
+        <v>-3705.21</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>31141.892124</v>
+        <v>31141.892124000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.650526</v>
+        <v>8.6505259999999993</v>
       </c>
       <c r="CE4" s="1">
-        <v>4267.600000</v>
+        <v>4267.6000000000004</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6075.730000</v>
+        <v>-6075.73</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>30972.464714</v>
+        <v>30972.464714000002</v>
       </c>
       <c r="B5" s="1">
-        <v>8.603462</v>
+        <v>8.6034620000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>1248.400000</v>
+        <v>1248.4000000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-308.929000</v>
+        <v>-308.92899999999997</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>30983.244255</v>
+        <v>30983.244255000001</v>
       </c>
       <c r="G5" s="1">
-        <v>8.606457</v>
+        <v>8.6064570000000007</v>
       </c>
       <c r="H5" s="1">
-        <v>1273.190000</v>
+        <v>1273.19</v>
       </c>
       <c r="I5" s="1">
-        <v>-266.372000</v>
+        <v>-266.37200000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>30993.706406</v>
+        <v>30993.706406000001</v>
       </c>
       <c r="L5" s="1">
-        <v>8.609363</v>
+        <v>8.6093630000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1308.240000</v>
+        <v>1308.24</v>
       </c>
       <c r="N5" s="1">
-        <v>-203.491000</v>
+        <v>-203.49100000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>31004.226549</v>
+        <v>31004.226548999999</v>
       </c>
       <c r="Q5" s="1">
         <v>8.612285</v>
       </c>
       <c r="R5" s="1">
-        <v>1320.610000</v>
+        <v>1320.61</v>
       </c>
       <c r="S5" s="1">
-        <v>-185.121000</v>
+        <v>-185.12100000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>31014.794773</v>
+        <v>31014.794773000001</v>
       </c>
       <c r="V5" s="1">
         <v>8.615221</v>
       </c>
       <c r="W5" s="1">
-        <v>1333.540000</v>
+        <v>1333.54</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.368000</v>
+        <v>-171.36799999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>31025.063942</v>
+        <v>31025.063942000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.618073</v>
+        <v>8.6180730000000008</v>
       </c>
       <c r="AB5" s="1">
-        <v>1350.550000</v>
+        <v>1350.55</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.994000</v>
+        <v>-168.994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>31035.314301</v>
+        <v>31035.314300999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.620921</v>
+        <v>8.6209209999999992</v>
       </c>
       <c r="AG5" s="1">
-        <v>1363.510000</v>
+        <v>1363.51</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.650000</v>
+        <v>-178.65</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>31045.383295</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.623718</v>
+        <v>8.6237180000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1384.080000</v>
+        <v>1384.08</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.431000</v>
+        <v>-208.43100000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>31055.654206</v>
+        <v>31055.654205999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.626571</v>
+        <v>8.6265710000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1405.620000</v>
+        <v>1405.62</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.307000</v>
+        <v>-252.30699999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>31066.314779</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.629532</v>
+        <v>8.6295319999999993</v>
       </c>
       <c r="AV5" s="1">
-        <v>1430.070000</v>
+        <v>1430.07</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.320000</v>
+        <v>-312.32</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>31077.046198</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.632513</v>
+        <v>8.6325129999999994</v>
       </c>
       <c r="BA5" s="1">
-        <v>1449.300000</v>
+        <v>1449.3</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.542000</v>
+        <v>-364.54199999999997</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>31087.686837</v>
+        <v>31087.686837000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.635469</v>
+        <v>8.6354690000000005</v>
       </c>
       <c r="BF5" s="1">
-        <v>1534.290000</v>
+        <v>1534.29</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.142000</v>
+        <v>-613.14200000000005</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>31099.065093</v>
+        <v>31099.065093000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.638629</v>
+        <v>8.6386289999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1687.990000</v>
+        <v>1687.99</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1059.440000</v>
+        <v>-1059.44</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>31109.898712</v>
+        <v>31109.898711999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.641639</v>
+        <v>8.6416389999999996</v>
       </c>
       <c r="BP5" s="1">
-        <v>1981.610000</v>
+        <v>1981.61</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1833.400000</v>
+        <v>-1833.4</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>31120.351404</v>
+        <v>31120.351404000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.644542</v>
+        <v>8.6445419999999995</v>
       </c>
       <c r="BU5" s="1">
-        <v>2370.780000</v>
+        <v>2370.7800000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2725.810000</v>
+        <v>-2725.81</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>31130.969723</v>
+        <v>31130.969722999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.647492</v>
+        <v>8.6474919999999997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2851.400000</v>
+        <v>2851.4</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3705.530000</v>
+        <v>-3705.53</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>31142.741804</v>
+        <v>31142.741804000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.650762</v>
+        <v>8.6507620000000003</v>
       </c>
       <c r="CE5" s="1">
-        <v>4262.890000</v>
+        <v>4262.8900000000003</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6055.520000</v>
+        <v>-6055.52</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>30972.840668</v>
+        <v>30972.840668000001</v>
       </c>
       <c r="B6" s="1">
         <v>8.603567</v>
       </c>
       <c r="C6" s="1">
-        <v>1248.170000</v>
+        <v>1248.17</v>
       </c>
       <c r="D6" s="1">
-        <v>-308.827000</v>
+        <v>-308.827</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>30983.593437</v>
       </c>
       <c r="G6" s="1">
-        <v>8.606554</v>
+        <v>8.6065539999999991</v>
       </c>
       <c r="H6" s="1">
-        <v>1273.300000</v>
+        <v>1273.3</v>
       </c>
       <c r="I6" s="1">
-        <v>-266.844000</v>
+        <v>-266.84399999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>30994.054671</v>
+        <v>30994.054671000002</v>
       </c>
       <c r="L6" s="1">
-        <v>8.609460</v>
+        <v>8.6094600000000003</v>
       </c>
       <c r="M6" s="1">
-        <v>1308.850000</v>
+        <v>1308.8499999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.337000</v>
+        <v>-203.33699999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>31004.577186</v>
+        <v>31004.577185999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.612383</v>
+        <v>8.6123829999999995</v>
       </c>
       <c r="R6" s="1">
-        <v>1320.570000</v>
+        <v>1320.57</v>
       </c>
       <c r="S6" s="1">
-        <v>-185.091000</v>
+        <v>-185.09100000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>31015.220341</v>
       </c>
       <c r="V6" s="1">
-        <v>8.615339</v>
+        <v>8.6153390000000005</v>
       </c>
       <c r="W6" s="1">
-        <v>1333.610000</v>
+        <v>1333.61</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.304000</v>
+        <v>-171.304</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>31025.335266</v>
+        <v>31025.335265999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.618149</v>
+        <v>8.6181490000000007</v>
       </c>
       <c r="AB6" s="1">
-        <v>1350.680000</v>
+        <v>1350.68</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.979000</v>
+        <v>-168.97900000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>31035.597017</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.620999</v>
+        <v>8.6209989999999994</v>
       </c>
       <c r="AG6" s="1">
-        <v>1363.610000</v>
+        <v>1363.61</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.636000</v>
+        <v>-178.636</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>31045.725291</v>
+        <v>31045.725290999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.623813</v>
+        <v>8.6238130000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1384.070000</v>
+        <v>1384.07</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.510000</v>
+        <v>-208.51</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>31056.006862</v>
+        <v>31056.006861999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.626669</v>
+        <v>8.6266689999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1405.610000</v>
+        <v>1405.61</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.311000</v>
+        <v>-252.31100000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>31066.683280</v>
+        <v>31066.683280000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.629634</v>
+        <v>8.6296339999999994</v>
       </c>
       <c r="AV6" s="1">
-        <v>1430.080000</v>
+        <v>1430.08</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.324000</v>
+        <v>-312.32400000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>31077.762882</v>
+        <v>31077.762881999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.632712</v>
+        <v>8.6327119999999997</v>
       </c>
       <c r="BA6" s="1">
-        <v>1449.280000</v>
+        <v>1449.28</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.480000</v>
+        <v>-364.48</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>31088.408516</v>
@@ -1674,2281 +2090,2281 @@
         <v>8.635669</v>
       </c>
       <c r="BF6" s="1">
-        <v>1534.260000</v>
+        <v>1534.26</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.130000</v>
+        <v>-613.13</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>31099.440036</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.638733</v>
+        <v>8.6387330000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1687.960000</v>
+        <v>1687.96</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1059.380000</v>
+        <v>-1059.3800000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>31110.314822</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.641754</v>
+        <v>8.6417540000000006</v>
       </c>
       <c r="BP6" s="1">
-        <v>1981.800000</v>
+        <v>1981.8</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1833.280000</v>
+        <v>-1833.28</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>31120.769000</v>
+        <v>31120.769</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.644658</v>
+        <v>8.6446579999999997</v>
       </c>
       <c r="BU6" s="1">
-        <v>2370.420000</v>
+        <v>2370.42</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2725.470000</v>
+        <v>-2725.47</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>31131.701819</v>
+        <v>31131.701819000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.647695</v>
+        <v>8.6476950000000006</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2852.170000</v>
+        <v>2852.17</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3705.010000</v>
+        <v>-3705.01</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>31142.971915</v>
+        <v>31142.971914999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.650826</v>
+        <v>8.6508260000000003</v>
       </c>
       <c r="CE6" s="1">
-        <v>4263.620000</v>
+        <v>4263.62</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6053.920000</v>
+        <v>-6053.92</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>30973.179932</v>
+        <v>30973.179931999999</v>
       </c>
       <c r="B7" s="1">
-        <v>8.603661</v>
+        <v>8.6036610000000007</v>
       </c>
       <c r="C7" s="1">
-        <v>1248.010000</v>
+        <v>1248.01</v>
       </c>
       <c r="D7" s="1">
-        <v>-308.570000</v>
+        <v>-308.57</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>30983.936670</v>
+        <v>30983.936669999999</v>
       </c>
       <c r="G7" s="1">
-        <v>8.606649</v>
+        <v>8.6066490000000009</v>
       </c>
       <c r="H7" s="1">
-        <v>1273.660000</v>
+        <v>1273.6600000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-265.705000</v>
+        <v>-265.70499999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>30994.469215</v>
+        <v>30994.469215000001</v>
       </c>
       <c r="L7" s="1">
-        <v>8.609575</v>
+        <v>8.6095749999999995</v>
       </c>
       <c r="M7" s="1">
-        <v>1309.040000</v>
+        <v>1309.04</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.325000</v>
+        <v>-203.32499999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>31005.000308</v>
+        <v>31005.000307999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.612500</v>
+        <v>8.6125000000000007</v>
       </c>
       <c r="R7" s="1">
-        <v>1320.490000</v>
+        <v>1320.49</v>
       </c>
       <c r="S7" s="1">
-        <v>-185.065000</v>
+        <v>-185.065</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>31015.490163</v>
+        <v>31015.490162999999</v>
       </c>
       <c r="V7" s="1">
-        <v>8.615414</v>
+        <v>8.6154139999999995</v>
       </c>
       <c r="W7" s="1">
-        <v>1333.590000</v>
+        <v>1333.59</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.320000</v>
+        <v>-171.32</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>31025.683968</v>
+        <v>31025.683968000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.618246</v>
+        <v>8.6182459999999992</v>
       </c>
       <c r="AB7" s="1">
-        <v>1350.450000</v>
+        <v>1350.45</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.834000</v>
+        <v>-168.834</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>31035.940216</v>
+        <v>31035.940215999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.621095</v>
+        <v>8.6210950000000004</v>
       </c>
       <c r="AG7" s="1">
-        <v>1363.590000</v>
+        <v>1363.59</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.677000</v>
+        <v>-178.67699999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>31046.077984</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.623911</v>
+        <v>8.6239109999999997</v>
       </c>
       <c r="AL7" s="1">
-        <v>1384.010000</v>
+        <v>1384.01</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.479000</v>
+        <v>-208.47900000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>31056.689853</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.626858</v>
+        <v>8.6268580000000004</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1405.600000</v>
+        <v>1405.6</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.277000</v>
+        <v>-252.27699999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>31067.411909</v>
+        <v>31067.411908999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.629837</v>
+        <v>8.6298370000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>1430.010000</v>
+        <v>1430.01</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.275000</v>
+        <v>-312.27499999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>31078.118514</v>
+        <v>31078.118514000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.632811</v>
+        <v>8.6328110000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1449.310000</v>
+        <v>1449.31</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.498000</v>
+        <v>-364.49799999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>31088.770596</v>
+        <v>31088.770595999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.635770</v>
+        <v>8.6357700000000008</v>
       </c>
       <c r="BF7" s="1">
-        <v>1534.240000</v>
+        <v>1534.24</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.196000</v>
+        <v>-613.19600000000003</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>31099.816004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.638838</v>
+        <v>8.6388379999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1688.010000</v>
+        <v>1688.01</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1059.410000</v>
+        <v>-1059.4100000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>31111.022613</v>
+        <v>31111.022613000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.641951</v>
+        <v>8.6419510000000006</v>
       </c>
       <c r="BP7" s="1">
-        <v>1981.740000</v>
+        <v>1981.74</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1833.380000</v>
+        <v>-1833.38</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>31121.488730</v>
+        <v>31121.488730000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>8.644858</v>
+        <v>8.6448579999999993</v>
       </c>
       <c r="BU7" s="1">
-        <v>2370.160000</v>
+        <v>2370.16</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2725.500000</v>
+        <v>-2725.5</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>31131.844170</v>
+        <v>31131.84417</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.647734</v>
+        <v>8.6477339999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2851.590000</v>
+        <v>2851.59</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3704.680000</v>
+        <v>-3704.68</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>31143.492250</v>
+        <v>31143.492249999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.650970</v>
+        <v>8.6509699999999992</v>
       </c>
       <c r="CE7" s="1">
-        <v>4262.860000</v>
+        <v>4262.8599999999997</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6070.700000</v>
+        <v>-6070.7</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>30973.568807</v>
       </c>
       <c r="B8" s="1">
-        <v>8.603769</v>
+        <v>8.6037689999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>1247.780000</v>
+        <v>1247.78</v>
       </c>
       <c r="D8" s="1">
-        <v>-308.597000</v>
+        <v>-308.59699999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>30984.351820</v>
+        <v>30984.35182</v>
       </c>
       <c r="G8" s="1">
-        <v>8.606764</v>
+        <v>8.6067640000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1274.000000</v>
+        <v>1274</v>
       </c>
       <c r="I8" s="1">
-        <v>-266.262000</v>
+        <v>-266.262</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>30994.746511</v>
+        <v>30994.746511000001</v>
       </c>
       <c r="L8" s="1">
-        <v>8.609652</v>
+        <v>8.6096520000000005</v>
       </c>
       <c r="M8" s="1">
-        <v>1308.940000</v>
+        <v>1308.94</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.451000</v>
+        <v>-203.45099999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>31005.290432</v>
+        <v>31005.290432000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.612581</v>
+        <v>8.6125810000000005</v>
       </c>
       <c r="R8" s="1">
-        <v>1320.520000</v>
+        <v>1320.52</v>
       </c>
       <c r="S8" s="1">
-        <v>-185.029000</v>
+        <v>-185.029</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>31015.832900</v>
+        <v>31015.832900000001</v>
       </c>
       <c r="V8" s="1">
-        <v>8.615509</v>
+        <v>8.6155089999999994</v>
       </c>
       <c r="W8" s="1">
-        <v>1333.490000</v>
+        <v>1333.49</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.262000</v>
+        <v>-171.262</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>31026.034614</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.618343</v>
+        <v>8.6183429999999994</v>
       </c>
       <c r="AB8" s="1">
-        <v>1350.730000</v>
+        <v>1350.73</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.942000</v>
+        <v>-168.94200000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>31036.282492</v>
+        <v>31036.282491999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.621190</v>
+        <v>8.6211900000000004</v>
       </c>
       <c r="AG8" s="1">
-        <v>1363.550000</v>
+        <v>1363.55</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.657000</v>
+        <v>-178.65700000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>31046.773370</v>
+        <v>31046.773369999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.624104</v>
+        <v>8.6241040000000009</v>
       </c>
       <c r="AL8" s="1">
-        <v>1384.070000</v>
+        <v>1384.07</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.498000</v>
+        <v>-208.49799999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>31057.123889</v>
+        <v>31057.123888999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.626979</v>
+        <v>8.6269790000000004</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1405.630000</v>
+        <v>1405.63</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.313000</v>
+        <v>-252.31299999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>31067.794782</v>
+        <v>31067.794782000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.629943</v>
+        <v>8.6299430000000008</v>
       </c>
       <c r="AV8" s="1">
-        <v>1430.070000</v>
+        <v>1430.07</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.278000</v>
+        <v>-312.27800000000002</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>31078.478112</v>
+        <v>31078.478112000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>8.632911</v>
       </c>
       <c r="BA8" s="1">
-        <v>1449.300000</v>
+        <v>1449.3</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.474000</v>
+        <v>-364.47399999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>31089.139618</v>
+        <v>31089.139618000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.635872</v>
+        <v>8.6358720000000009</v>
       </c>
       <c r="BF8" s="1">
-        <v>1534.250000</v>
+        <v>1534.25</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.133000</v>
+        <v>-613.13300000000004</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>31100.497038</v>
+        <v>31100.497038000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.639027</v>
+        <v>8.6390270000000005</v>
       </c>
       <c r="BK8" s="1">
-        <v>1687.920000</v>
+        <v>1687.92</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1059.390000</v>
+        <v>-1059.3900000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>31111.143140</v>
+        <v>31111.14314</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.641984</v>
+        <v>8.6419840000000008</v>
       </c>
       <c r="BP8" s="1">
-        <v>1981.560000</v>
+        <v>1981.56</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1833.480000</v>
+        <v>-1833.48</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>31121.612695</v>
       </c>
       <c r="BT8" s="1">
-        <v>8.644892</v>
+        <v>8.6448920000000005</v>
       </c>
       <c r="BU8" s="1">
-        <v>2369.900000</v>
+        <v>2369.9</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2725.230000</v>
+        <v>-2725.23</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>31132.267753</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.647852</v>
+        <v>8.6478520000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2851.100000</v>
+        <v>2851.1</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3704.110000</v>
+        <v>-3704.11</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>31144.007859</v>
+        <v>31144.007859000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.651113</v>
+        <v>8.6511130000000005</v>
       </c>
       <c r="CE8" s="1">
-        <v>4263.020000</v>
+        <v>4263.0200000000004</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6064.280000</v>
+        <v>-6064.28</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>30974.217065</v>
+        <v>30974.217065000001</v>
       </c>
       <c r="B9" s="1">
-        <v>8.603949</v>
+        <v>8.6039490000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1248.000000</v>
+        <v>1248</v>
       </c>
       <c r="D9" s="1">
-        <v>-308.535000</v>
+        <v>-308.53500000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>30984.633084</v>
+        <v>30984.633084000001</v>
       </c>
       <c r="G9" s="1">
-        <v>8.606843</v>
+        <v>8.6068429999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>1273.370000</v>
+        <v>1273.3699999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-266.852000</v>
+        <v>-266.85199999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>30995.094670</v>
+        <v>30995.094669999999</v>
       </c>
       <c r="L9" s="1">
-        <v>8.609749</v>
+        <v>8.6097490000000008</v>
       </c>
       <c r="M9" s="1">
-        <v>1308.760000</v>
+        <v>1308.76</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.179000</v>
+        <v>-203.179</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>31005.643584</v>
+        <v>31005.643584000001</v>
       </c>
       <c r="Q9" s="1">
         <v>8.612679</v>
       </c>
       <c r="R9" s="1">
-        <v>1320.490000</v>
+        <v>1320.49</v>
       </c>
       <c r="S9" s="1">
-        <v>-185.010000</v>
+        <v>-185.01</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>31016.175138</v>
+        <v>31016.175137999999</v>
       </c>
       <c r="V9" s="1">
-        <v>8.615604</v>
+        <v>8.6156039999999994</v>
       </c>
       <c r="W9" s="1">
-        <v>1333.660000</v>
+        <v>1333.66</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.449000</v>
+        <v>-171.44900000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>31026.732518</v>
+        <v>31026.732518000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.618537</v>
+        <v>8.6185369999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1350.820000</v>
+        <v>1350.82</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.952000</v>
+        <v>-168.952</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>31036.972392</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.621381</v>
+        <v>8.6213809999999995</v>
       </c>
       <c r="AG9" s="1">
-        <v>1363.560000</v>
+        <v>1363.56</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.628000</v>
+        <v>-178.62799999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>31047.123515</v>
+        <v>31047.123514999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.624201</v>
+        <v>8.6242009999999993</v>
       </c>
       <c r="AL9" s="1">
-        <v>1384.090000</v>
+        <v>1384.09</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.502000</v>
+        <v>-208.50200000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>31057.483947</v>
+        <v>31057.483947000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.627079</v>
+        <v>8.6270790000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1405.650000</v>
+        <v>1405.65</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.294000</v>
+        <v>-252.29400000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>31068.159341</v>
+        <v>31068.159340999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.630044</v>
+        <v>8.6300439999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1430.020000</v>
+        <v>1430.02</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.326000</v>
+        <v>-312.32600000000002</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>31079.152177</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.633098</v>
+        <v>8.6330980000000004</v>
       </c>
       <c r="BA9" s="1">
-        <v>1449.290000</v>
+        <v>1449.29</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.506000</v>
+        <v>-364.50599999999997</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>31089.860342</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.636072</v>
+        <v>8.6360720000000004</v>
       </c>
       <c r="BF9" s="1">
-        <v>1534.240000</v>
+        <v>1534.24</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.160000</v>
+        <v>-613.16</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>31100.609108</v>
+        <v>31100.609108000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.639058</v>
+        <v>8.6390580000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1688.010000</v>
+        <v>1688.01</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1059.350000</v>
+        <v>-1059.3499999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>31111.562262</v>
+        <v>31111.562261999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.642101</v>
+        <v>8.6421010000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1981.580000</v>
+        <v>1981.58</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1833.460000</v>
+        <v>-1833.46</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>31122.023383</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.645006</v>
+        <v>8.6450060000000004</v>
       </c>
       <c r="BU9" s="1">
-        <v>2369.680000</v>
+        <v>2369.6799999999998</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2725.180000</v>
+        <v>-2725.18</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>31132.687864</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.647969</v>
+        <v>8.6479689999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2851.460000</v>
+        <v>2851.46</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3704.990000</v>
+        <v>-3704.99</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>31144.561593</v>
+        <v>31144.561592999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.651267</v>
+        <v>8.6512670000000007</v>
       </c>
       <c r="CE9" s="1">
-        <v>4261.870000</v>
+        <v>4261.87</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6055.370000</v>
+        <v>-6055.37</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>30974.560303</v>
+        <v>30974.560302999998</v>
       </c>
       <c r="B10" s="1">
-        <v>8.604045</v>
+        <v>8.6040449999999993</v>
       </c>
       <c r="C10" s="1">
-        <v>1247.990000</v>
+        <v>1247.99</v>
       </c>
       <c r="D10" s="1">
-        <v>-308.845000</v>
+        <v>-308.84500000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>30984.976284</v>
       </c>
       <c r="G10" s="1">
-        <v>8.606938</v>
+        <v>8.6069379999999995</v>
       </c>
       <c r="H10" s="1">
-        <v>1274.080000</v>
+        <v>1274.08</v>
       </c>
       <c r="I10" s="1">
-        <v>-266.343000</v>
+        <v>-266.34300000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>30995.440877</v>
+        <v>30995.440877000001</v>
       </c>
       <c r="L10" s="1">
         <v>8.609845</v>
       </c>
       <c r="M10" s="1">
-        <v>1308.210000</v>
+        <v>1308.21</v>
       </c>
       <c r="N10" s="1">
-        <v>-203.793000</v>
+        <v>-203.79300000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>31005.989831</v>
+        <v>31005.989830999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.612775</v>
+        <v>8.6127749999999992</v>
       </c>
       <c r="R10" s="1">
-        <v>1320.580000</v>
+        <v>1320.58</v>
       </c>
       <c r="S10" s="1">
-        <v>-185.068000</v>
+        <v>-185.06800000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>31016.863586</v>
+        <v>31016.863585999999</v>
       </c>
       <c r="V10" s="1">
-        <v>8.615795</v>
+        <v>8.6157950000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>1333.560000</v>
+        <v>1333.56</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.317000</v>
+        <v>-171.31700000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>31027.079684</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.618633</v>
+        <v>8.6186330000000009</v>
       </c>
       <c r="AB10" s="1">
-        <v>1350.680000</v>
+        <v>1350.68</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.034000</v>
+        <v>-169.03399999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>31037.313176</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.621476</v>
+        <v>8.6214759999999995</v>
       </c>
       <c r="AG10" s="1">
-        <v>1363.580000</v>
+        <v>1363.58</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.614000</v>
+        <v>-178.614</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>31047.471214</v>
+        <v>31047.471214000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.624298</v>
+        <v>8.6242979999999996</v>
       </c>
       <c r="AL10" s="1">
-        <v>1384.080000</v>
+        <v>1384.08</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.429000</v>
+        <v>-208.429</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>31058.153547</v>
+        <v>31058.153547000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.627265</v>
+        <v>8.6272649999999995</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1405.650000</v>
+        <v>1405.65</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.278000</v>
+        <v>-252.27799999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>31068.833405</v>
+        <v>31068.833405000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.630232</v>
+        <v>8.6302319999999995</v>
       </c>
       <c r="AV10" s="1">
-        <v>1430.070000</v>
+        <v>1430.07</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.281000</v>
+        <v>-312.28100000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>31079.555462</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.633210</v>
+        <v>8.6332100000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1449.320000</v>
+        <v>1449.32</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.478000</v>
+        <v>-364.47800000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>31090.239759</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.636178</v>
+        <v>8.6361779999999992</v>
       </c>
       <c r="BF10" s="1">
-        <v>1534.230000</v>
+        <v>1534.23</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.075000</v>
+        <v>-613.07500000000005</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>31100.967714</v>
+        <v>31100.967713999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.639158</v>
+        <v>8.6391580000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1687.950000</v>
+        <v>1687.95</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1059.450000</v>
+        <v>-1059.45</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>31111.959094</v>
+        <v>31111.959094000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.642211</v>
+        <v>8.6422109999999996</v>
       </c>
       <c r="BP10" s="1">
-        <v>1981.540000</v>
+        <v>1981.54</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1833.330000</v>
+        <v>-1833.33</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>31122.454903</v>
+        <v>31122.454903000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.645126</v>
+        <v>8.6451259999999994</v>
       </c>
       <c r="BU10" s="1">
-        <v>2369.320000</v>
+        <v>2369.3200000000002</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2725.170000</v>
+        <v>-2725.17</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>31133.132279</v>
+        <v>31133.132279000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.648092</v>
+        <v>8.6480920000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2852.040000</v>
+        <v>2852.04</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3704.270000</v>
+        <v>-3704.27</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>31145.091817</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.651414</v>
+        <v>8.6514140000000008</v>
       </c>
       <c r="CE10" s="1">
-        <v>4263.200000</v>
+        <v>4263.2</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6072.620000</v>
+        <v>-6072.62</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>30974.899065</v>
+        <v>30974.899065000001</v>
       </c>
       <c r="B11" s="1">
         <v>8.604139</v>
       </c>
       <c r="C11" s="1">
-        <v>1247.880000</v>
+        <v>1247.8800000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-308.532000</v>
+        <v>-308.53199999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>30985.321499</v>
+        <v>30985.321499000001</v>
       </c>
       <c r="G11" s="1">
-        <v>8.607034</v>
+        <v>8.6070340000000005</v>
       </c>
       <c r="H11" s="1">
-        <v>1273.270000</v>
+        <v>1273.27</v>
       </c>
       <c r="I11" s="1">
-        <v>-265.944000</v>
+        <v>-265.94400000000002</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>30996.132828</v>
+        <v>30996.132828000002</v>
       </c>
       <c r="L11" s="1">
-        <v>8.610037</v>
+        <v>8.6100370000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1308.670000</v>
+        <v>1308.67</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.253000</v>
+        <v>-203.25299999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>31006.684192</v>
+        <v>31006.684192000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.612968</v>
+        <v>8.6129680000000004</v>
       </c>
       <c r="R11" s="1">
-        <v>1320.570000</v>
+        <v>1320.57</v>
       </c>
       <c r="S11" s="1">
-        <v>-185.149000</v>
+        <v>-185.149</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>31017.207313</v>
+        <v>31017.207312999999</v>
       </c>
       <c r="V11" s="1">
-        <v>8.615891</v>
+        <v>8.6158909999999995</v>
       </c>
       <c r="W11" s="1">
-        <v>1333.640000</v>
+        <v>1333.64</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.168000</v>
+        <v>-171.16800000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>31027.429861</v>
+        <v>31027.429861000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.618731</v>
+        <v>8.6187310000000004</v>
       </c>
       <c r="AB11" s="1">
-        <v>1350.630000</v>
+        <v>1350.63</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.928000</v>
+        <v>-168.928</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>31037.657399</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.621571</v>
+        <v>8.6215709999999994</v>
       </c>
       <c r="AG11" s="1">
-        <v>1363.530000</v>
+        <v>1363.53</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.608000</v>
+        <v>-178.608</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>31048.133111</v>
+        <v>31048.133110999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.624481</v>
+        <v>8.6244809999999994</v>
       </c>
       <c r="AL11" s="1">
-        <v>1384.070000</v>
+        <v>1384.07</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.454000</v>
+        <v>-208.45400000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>31058.598835</v>
+        <v>31058.598835000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.627389</v>
+        <v>8.6273890000000009</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1405.630000</v>
+        <v>1405.63</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.306000</v>
+        <v>-252.30600000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>31069.287277</v>
+        <v>31069.287276999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.630358</v>
+        <v>8.6303579999999993</v>
       </c>
       <c r="AV11" s="1">
-        <v>1430.070000</v>
+        <v>1430.07</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.327000</v>
+        <v>-312.327</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>31079.945278</v>
+        <v>31079.945277999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>8.633318</v>
+        <v>8.6333179999999992</v>
       </c>
       <c r="BA11" s="1">
-        <v>1449.360000</v>
+        <v>1449.36</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.444000</v>
+        <v>-364.44400000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>31090.602320</v>
+        <v>31090.602320000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.636278</v>
+        <v>8.6362780000000008</v>
       </c>
       <c r="BF11" s="1">
-        <v>1534.280000</v>
+        <v>1534.28</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.147000</v>
+        <v>-613.14700000000005</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>31101.345170</v>
+        <v>31101.345170000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.639263</v>
+        <v>8.6392629999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1687.890000</v>
+        <v>1687.89</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1059.390000</v>
+        <v>-1059.3900000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>31112.388101</v>
       </c>
       <c r="BO11" s="1">
-        <v>8.642330</v>
+        <v>8.6423299999999994</v>
       </c>
       <c r="BP11" s="1">
-        <v>1981.640000</v>
+        <v>1981.64</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1833.160000</v>
+        <v>-1833.16</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>31122.866581</v>
+        <v>31122.866580999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.645241</v>
+        <v>8.6452410000000004</v>
       </c>
       <c r="BU11" s="1">
-        <v>2369.270000</v>
+        <v>2369.27</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2724.930000</v>
+        <v>-2724.93</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>31133.554407</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.648210</v>
+        <v>8.6482100000000006</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2851.700000</v>
+        <v>2851.7</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3704.440000</v>
+        <v>-3704.44</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>31145.608683</v>
+        <v>31145.608682999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.651558</v>
+        <v>8.6515579999999996</v>
       </c>
       <c r="CE11" s="1">
-        <v>4279.140000</v>
+        <v>4279.1400000000003</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6070.450000</v>
+        <v>-6070.45</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>30975.591480</v>
+        <v>30975.591479999999</v>
       </c>
       <c r="B12" s="1">
-        <v>8.604331</v>
+        <v>8.6043310000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1248.020000</v>
+        <v>1248.02</v>
       </c>
       <c r="D12" s="1">
-        <v>-308.712000</v>
+        <v>-308.71199999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>30986.008955</v>
+        <v>30986.008955000001</v>
       </c>
       <c r="G12" s="1">
-        <v>8.607225</v>
+        <v>8.6072249999999997</v>
       </c>
       <c r="H12" s="1">
-        <v>1273.590000</v>
+        <v>1273.5899999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-266.280000</v>
+        <v>-266.27999999999997</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>30996.477021</v>
+        <v>30996.477020999999</v>
       </c>
       <c r="L12" s="1">
-        <v>8.610133</v>
+        <v>8.6101329999999994</v>
       </c>
       <c r="M12" s="1">
-        <v>1308.450000</v>
+        <v>1308.45</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.485000</v>
+        <v>-203.48500000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>31007.035854</v>
+        <v>31007.035854000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.613066</v>
+        <v>8.6130659999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1320.470000</v>
+        <v>1320.47</v>
       </c>
       <c r="S12" s="1">
-        <v>-185.139000</v>
+        <v>-185.13900000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>31017.550544</v>
+        <v>31017.550544000002</v>
       </c>
       <c r="V12" s="1">
-        <v>8.615986</v>
+        <v>8.6159859999999995</v>
       </c>
       <c r="W12" s="1">
-        <v>1333.450000</v>
+        <v>1333.45</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.291000</v>
+        <v>-171.291</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>31028.077672</v>
+        <v>31028.077671999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.618910</v>
+        <v>8.6189099999999996</v>
       </c>
       <c r="AB12" s="1">
-        <v>1350.700000</v>
+        <v>1350.7</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.805000</v>
+        <v>-168.80500000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>31038.313573</v>
+        <v>31038.313572999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.621754</v>
+        <v>8.6217539999999993</v>
       </c>
       <c r="AG12" s="1">
-        <v>1363.570000</v>
+        <v>1363.57</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.613000</v>
+        <v>-178.613</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>31048.518264</v>
+        <v>31048.518263999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.624588</v>
+        <v>8.6245879999999993</v>
       </c>
       <c r="AL12" s="1">
-        <v>1384.050000</v>
+        <v>1384.05</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.423000</v>
+        <v>-208.423</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>31058.958058</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.627488</v>
+        <v>8.6274879999999996</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1405.620000</v>
+        <v>1405.62</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.294000</v>
+        <v>-252.29400000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>31069.656300</v>
+        <v>31069.656299999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.630460</v>
+        <v>8.6304599999999994</v>
       </c>
       <c r="AV12" s="1">
-        <v>1430.050000</v>
+        <v>1430.05</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.346000</v>
+        <v>-312.346</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>31080.302926</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.633417</v>
+        <v>8.6334169999999997</v>
       </c>
       <c r="BA12" s="1">
-        <v>1449.350000</v>
+        <v>1449.35</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.382000</v>
+        <v>-364.38200000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>31091.026895</v>
+        <v>31091.026894999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.636396</v>
+        <v>8.6363959999999995</v>
       </c>
       <c r="BF12" s="1">
-        <v>1534.220000</v>
+        <v>1534.22</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.152000</v>
+        <v>-613.15200000000004</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>31101.778264</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.639383</v>
+        <v>8.6393830000000005</v>
       </c>
       <c r="BK12" s="1">
-        <v>1687.980000</v>
+        <v>1687.98</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1059.320000</v>
+        <v>-1059.32</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>31112.779444</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.642439</v>
+        <v>8.6424389999999995</v>
       </c>
       <c r="BP12" s="1">
-        <v>1981.480000</v>
+        <v>1981.48</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1833.330000</v>
+        <v>-1833.33</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>31123.283717</v>
+        <v>31123.283716999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.645357</v>
+        <v>8.6453570000000006</v>
       </c>
       <c r="BU12" s="1">
-        <v>2369.110000</v>
+        <v>2369.11</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2724.800000</v>
+        <v>-2724.8</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>31133.977990</v>
+        <v>31133.977989999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.648327</v>
+        <v>8.6483270000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2851.700000</v>
+        <v>2851.7</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3704.340000</v>
+        <v>-3704.34</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>31146.128491</v>
+        <v>31146.128490999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.651702</v>
+        <v>8.6517020000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>4276.730000</v>
+        <v>4276.7299999999996</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6056.280000</v>
+        <v>-6056.28</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>30975.930285</v>
+        <v>30975.930284999999</v>
       </c>
       <c r="B13" s="1">
-        <v>8.604425</v>
+        <v>8.6044250000000009</v>
       </c>
       <c r="C13" s="1">
-        <v>1248.140000</v>
+        <v>1248.1400000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-308.742000</v>
+        <v>-308.74200000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>30986.355360</v>
+        <v>30986.355360000001</v>
       </c>
       <c r="G13" s="1">
-        <v>8.607321</v>
+        <v>8.6073210000000007</v>
       </c>
       <c r="H13" s="1">
-        <v>1273.470000</v>
+        <v>1273.47</v>
       </c>
       <c r="I13" s="1">
-        <v>-265.949000</v>
+        <v>-265.94900000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>30996.823265</v>
+        <v>30996.823264999999</v>
       </c>
       <c r="L13" s="1">
-        <v>8.610229</v>
+        <v>8.6102290000000004</v>
       </c>
       <c r="M13" s="1">
-        <v>1308.740000</v>
+        <v>1308.74</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.532000</v>
+        <v>-203.53200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>31007.705949</v>
+        <v>31007.705948999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.613252</v>
+        <v>8.6132519999999992</v>
       </c>
       <c r="R13" s="1">
-        <v>1320.500000</v>
+        <v>1320.5</v>
       </c>
       <c r="S13" s="1">
-        <v>-185.019000</v>
+        <v>-185.01900000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>31018.200799</v>
+        <v>31018.200798999998</v>
       </c>
       <c r="V13" s="1">
-        <v>8.616167</v>
+        <v>8.6161670000000008</v>
       </c>
       <c r="W13" s="1">
-        <v>1333.450000</v>
+        <v>1333.45</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.397000</v>
+        <v>-171.39699999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>31028.475923</v>
+        <v>31028.475923000002</v>
       </c>
       <c r="AA13" s="1">
         <v>8.619021</v>
       </c>
       <c r="AB13" s="1">
-        <v>1350.690000</v>
+        <v>1350.69</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.001000</v>
+        <v>-169.001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>31038.688549</v>
+        <v>31038.688548999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.621858</v>
+        <v>8.6218579999999996</v>
       </c>
       <c r="AG13" s="1">
-        <v>1363.550000</v>
+        <v>1363.55</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.639000</v>
+        <v>-178.63900000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>31048.866318</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.624685</v>
+        <v>8.6246849999999995</v>
       </c>
       <c r="AL13" s="1">
-        <v>1384.060000</v>
+        <v>1384.06</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.469000</v>
+        <v>-208.46899999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>31059.318155</v>
+        <v>31059.318155000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.627588</v>
+        <v>8.6275879999999994</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1405.600000</v>
+        <v>1405.6</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.292000</v>
+        <v>-252.292</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>31070.017851</v>
+        <v>31070.017851000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.630561</v>
+        <v>8.6305610000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1430.040000</v>
+        <v>1430.04</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.421000</v>
+        <v>-312.42099999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>31080.725486</v>
+        <v>31080.725485999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.633535</v>
+        <v>8.6335350000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1449.340000</v>
+        <v>1449.34</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.438000</v>
+        <v>-364.43799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>31091.324000</v>
+        <v>31091.324000000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.636479</v>
+        <v>8.6364789999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1534.220000</v>
+        <v>1534.22</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.134000</v>
+        <v>-613.13400000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>31102.104081</v>
+        <v>31102.104081000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.639473</v>
+        <v>8.6394730000000006</v>
       </c>
       <c r="BK13" s="1">
-        <v>1687.950000</v>
+        <v>1687.95</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1059.370000</v>
+        <v>-1059.3699999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>31113.202035</v>
+        <v>31113.202034999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.642556</v>
+        <v>8.6425560000000008</v>
       </c>
       <c r="BP13" s="1">
-        <v>1981.520000</v>
+        <v>1981.52</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1833.310000</v>
+        <v>-1833.31</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>31123.700852</v>
+        <v>31123.700852000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.645472</v>
+        <v>8.6454719999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>2368.880000</v>
+        <v>2368.88</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2725.060000</v>
+        <v>-2725.06</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>31134.426374</v>
+        <v>31134.426373999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.648452</v>
+        <v>8.6484520000000007</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2850.660000</v>
+        <v>2850.66</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3704.640000</v>
+        <v>-3704.64</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>31146.642806</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.651845</v>
+        <v>8.6518449999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>4262.980000</v>
+        <v>4262.9799999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6059.700000</v>
+        <v>-6059.7</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>30976.272985</v>
       </c>
       <c r="B14" s="1">
-        <v>8.604520</v>
+        <v>8.6045200000000008</v>
       </c>
       <c r="C14" s="1">
-        <v>1247.620000</v>
+        <v>1247.6199999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-308.425000</v>
+        <v>-308.42500000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>30986.703353</v>
+        <v>30986.703353000001</v>
       </c>
       <c r="G14" s="1">
-        <v>8.607418</v>
+        <v>8.6074179999999991</v>
       </c>
       <c r="H14" s="1">
-        <v>1273.430000</v>
+        <v>1273.43</v>
       </c>
       <c r="I14" s="1">
-        <v>-266.072000</v>
+        <v>-266.072</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>30997.483403</v>
+        <v>30997.483402999998</v>
       </c>
       <c r="L14" s="1">
-        <v>8.610412</v>
+        <v>8.6104120000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1308.540000</v>
+        <v>1308.54</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.250000</v>
+        <v>-203.25</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>31008.082941</v>
+        <v>31008.082941000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.613356</v>
+        <v>8.6133559999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>1320.580000</v>
+        <v>1320.58</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.967000</v>
+        <v>-184.96700000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>31018.582224</v>
+        <v>31018.582224000002</v>
       </c>
       <c r="V14" s="1">
-        <v>8.616273</v>
+        <v>8.6162729999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>1333.500000</v>
+        <v>1333.5</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.345000</v>
+        <v>-171.345</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>31028.822130</v>
+        <v>31028.82213</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.619117</v>
+        <v>8.6191169999999993</v>
       </c>
       <c r="AB14" s="1">
-        <v>1350.690000</v>
+        <v>1350.69</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.016000</v>
+        <v>-169.01599999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>31039.027812</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.621952</v>
+        <v>8.6219520000000003</v>
       </c>
       <c r="AG14" s="1">
-        <v>1363.550000</v>
+        <v>1363.55</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.593000</v>
+        <v>-178.59299999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>31049.216273</v>
+        <v>31049.216272999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.624782</v>
+        <v>8.6247819999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>1384.080000</v>
+        <v>1384.08</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.483000</v>
+        <v>-208.483</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>31059.741277</v>
+        <v>31059.741277000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.627706</v>
+        <v>8.6277059999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1405.580000</v>
+        <v>1405.58</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.309000</v>
+        <v>-252.309</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>31070.435022</v>
+        <v>31070.435022000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.630676</v>
+        <v>8.6306759999999993</v>
       </c>
       <c r="AV14" s="1">
-        <v>1430.010000</v>
+        <v>1430.01</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.404000</v>
+        <v>-312.404</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>31081.019620</v>
+        <v>31081.019619999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.633617</v>
+        <v>8.6336169999999992</v>
       </c>
       <c r="BA14" s="1">
-        <v>1449.290000</v>
+        <v>1449.29</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.509000</v>
+        <v>-364.50900000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>31091.685616</v>
+        <v>31091.685615999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.636579</v>
+        <v>8.6365789999999993</v>
       </c>
       <c r="BF14" s="1">
-        <v>1534.270000</v>
+        <v>1534.27</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.091000</v>
+        <v>-613.09100000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>31102.493409</v>
+        <v>31102.493408999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.639582</v>
+        <v>8.6395820000000008</v>
       </c>
       <c r="BK14" s="1">
-        <v>1687.940000</v>
+        <v>1687.94</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1059.390000</v>
+        <v>-1059.3900000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>31113.597873</v>
+        <v>31113.597872999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.642666</v>
+        <v>8.6426660000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1981.570000</v>
+        <v>1981.57</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1833.260000</v>
+        <v>-1833.26</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>31124.117493</v>
+        <v>31124.117493000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.645588</v>
+        <v>8.6455880000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2368.670000</v>
+        <v>2368.67</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2724.530000</v>
+        <v>-2724.53</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>31134.858680</v>
+        <v>31134.858680000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.648572</v>
+        <v>8.6485719999999997</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2851.110000</v>
+        <v>2851.11</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3704.750000</v>
+        <v>-3704.75</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>31147.162613</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.651990</v>
+        <v>8.6519899999999996</v>
       </c>
       <c r="CE14" s="1">
-        <v>4268.960000</v>
+        <v>4268.96</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6072.720000</v>
+        <v>-6072.72</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>30976.934647</v>
+        <v>30976.934646999998</v>
       </c>
       <c r="B15" s="1">
-        <v>8.604704</v>
+        <v>8.6047039999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1247.730000</v>
+        <v>1247.73</v>
       </c>
       <c r="D15" s="1">
-        <v>-308.539000</v>
+        <v>-308.53899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>30987.354600</v>
+        <v>30987.354599999999</v>
       </c>
       <c r="G15" s="1">
-        <v>8.607599</v>
+        <v>8.6075990000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>1273.290000</v>
+        <v>1273.29</v>
       </c>
       <c r="I15" s="1">
-        <v>-266.397000</v>
+        <v>-266.39699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>30997.866810</v>
+        <v>30997.86681</v>
       </c>
       <c r="L15" s="1">
         <v>8.610519</v>
       </c>
       <c r="M15" s="1">
-        <v>1308.690000</v>
+        <v>1308.69</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.244000</v>
+        <v>-203.244</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>31008.429645</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.613453</v>
+        <v>8.6134529999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1320.590000</v>
+        <v>1320.59</v>
       </c>
       <c r="S15" s="1">
-        <v>-185.088000</v>
+        <v>-185.08799999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>31018.924959</v>
       </c>
       <c r="V15" s="1">
-        <v>8.616368</v>
+        <v>8.6163679999999996</v>
       </c>
       <c r="W15" s="1">
-        <v>1333.490000</v>
+        <v>1333.49</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.378000</v>
+        <v>-171.37799999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>31029.172801</v>
+        <v>31029.172801000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.619215</v>
+        <v>8.6192150000000005</v>
       </c>
       <c r="AB15" s="1">
-        <v>1350.990000</v>
+        <v>1350.99</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.009000</v>
+        <v>-169.00899999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>31039.380504</v>
+        <v>31039.380504000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.622050</v>
+        <v>8.6220499999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1363.490000</v>
+        <v>1363.49</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.589000</v>
+        <v>-178.589</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>31049.643686</v>
+        <v>31049.643685999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.624901</v>
+        <v>8.6249009999999995</v>
       </c>
       <c r="AL15" s="1">
-        <v>1384.070000</v>
+        <v>1384.07</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.466000</v>
+        <v>-208.46600000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>31060.037384</v>
+        <v>31060.037383999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.627788</v>
+        <v>8.6277880000000007</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1405.530000</v>
+        <v>1405.53</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.405000</v>
+        <v>-252.405</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>31070.746971</v>
@@ -3957,1994 +4373,1994 @@
         <v>8.630763</v>
       </c>
       <c r="AV15" s="1">
-        <v>1430.030000</v>
+        <v>1430.03</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.369000</v>
+        <v>-312.36900000000003</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>31081.378716</v>
+        <v>31081.378715999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.633716</v>
+        <v>8.6337159999999997</v>
       </c>
       <c r="BA15" s="1">
-        <v>1449.290000</v>
+        <v>1449.29</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.503000</v>
+        <v>-364.50299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>31092.046671</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.636680</v>
+        <v>8.6366800000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1534.260000</v>
+        <v>1534.26</v>
       </c>
       <c r="BG15" s="1">
-        <v>-613.088000</v>
+        <v>-613.08799999999997</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>31102.866896</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.639685</v>
+        <v>8.6396850000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1688.010000</v>
+        <v>1688.01</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1059.370000</v>
+        <v>-1059.3699999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>31114.017457</v>
+        <v>31114.017457000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.642783</v>
+        <v>8.6427829999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1981.490000</v>
+        <v>1981.49</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1833.340000</v>
+        <v>-1833.34</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>31124.529203</v>
+        <v>31124.529202999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.645703</v>
+        <v>8.6457029999999992</v>
       </c>
       <c r="BU15" s="1">
-        <v>2368.400000</v>
+        <v>2368.4</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2724.570000</v>
+        <v>-2724.57</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>31135.278481</v>
+        <v>31135.278481000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.648688</v>
+        <v>8.6486879999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2850.780000</v>
+        <v>2850.78</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3704.170000</v>
+        <v>-3704.17</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>31147.678452</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.652133</v>
+        <v>8.6521329999999992</v>
       </c>
       <c r="CE15" s="1">
-        <v>4260.220000</v>
+        <v>4260.22</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6069.520000</v>
+        <v>-6069.52</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>30977.303669</v>
+        <v>30977.303669000001</v>
       </c>
       <c r="B16" s="1">
-        <v>8.604807</v>
+        <v>8.6048069999999992</v>
       </c>
       <c r="C16" s="1">
-        <v>1247.980000</v>
+        <v>1247.98</v>
       </c>
       <c r="D16" s="1">
-        <v>-308.911000</v>
+        <v>-308.911</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>30987.735068</v>
+        <v>30987.735068000002</v>
       </c>
       <c r="G16" s="1">
         <v>8.607704</v>
       </c>
       <c r="H16" s="1">
-        <v>1273.710000</v>
+        <v>1273.71</v>
       </c>
       <c r="I16" s="1">
-        <v>-266.337000</v>
+        <v>-266.33699999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>30998.206074</v>
+        <v>30998.206074000002</v>
       </c>
       <c r="L16" s="1">
-        <v>8.610613</v>
+        <v>8.6106130000000007</v>
       </c>
       <c r="M16" s="1">
-        <v>1308.660000</v>
+        <v>1308.6600000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.247000</v>
+        <v>-203.24700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>31008.778797</v>
+        <v>31008.778796999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.613550</v>
+        <v>8.61355</v>
       </c>
       <c r="R16" s="1">
-        <v>1320.540000</v>
+        <v>1320.54</v>
       </c>
       <c r="S16" s="1">
-        <v>-185.094000</v>
+        <v>-185.09399999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>31019.267230</v>
+        <v>31019.267230000001</v>
       </c>
       <c r="V16" s="1">
-        <v>8.616463</v>
+        <v>8.6164629999999995</v>
       </c>
       <c r="W16" s="1">
-        <v>1333.550000</v>
+        <v>1333.55</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.305000</v>
+        <v>-171.30500000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>31029.598865</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.619333</v>
+        <v>8.6193329999999992</v>
       </c>
       <c r="AB16" s="1">
-        <v>1350.740000</v>
+        <v>1350.74</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.935000</v>
+        <v>-168.935</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>31039.867043</v>
+        <v>31039.867042999998</v>
       </c>
       <c r="AF16" s="1">
         <v>8.622185</v>
       </c>
       <c r="AG16" s="1">
-        <v>1363.570000</v>
+        <v>1363.57</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.671000</v>
+        <v>-178.67099999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>31049.921480</v>
+        <v>31049.921480000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.624978</v>
+        <v>8.6249780000000005</v>
       </c>
       <c r="AL16" s="1">
-        <v>1384.020000</v>
+        <v>1384.02</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.473000</v>
+        <v>-208.47300000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>31060.400425</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.627889</v>
+        <v>8.6278889999999997</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1405.550000</v>
+        <v>1405.55</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.340000</v>
+        <v>-252.34</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>31071.109051</v>
+        <v>31071.109050999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.630864</v>
+        <v>8.6308640000000008</v>
       </c>
       <c r="AV16" s="1">
-        <v>1430.000000</v>
+        <v>1430</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.342000</v>
+        <v>-312.34199999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>31081.737821</v>
+        <v>31081.737820999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.633816</v>
+        <v>8.6338159999999995</v>
       </c>
       <c r="BA16" s="1">
-        <v>1449.300000</v>
+        <v>1449.3</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.520000</v>
+        <v>-364.52</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>31092.768382</v>
+        <v>31092.768381999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.636880</v>
+        <v>8.6368799999999997</v>
       </c>
       <c r="BF16" s="1">
-        <v>1534.240000</v>
+        <v>1534.24</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.108000</v>
+        <v>-613.10799999999995</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>31103.617344</v>
+        <v>31103.617343999998</v>
       </c>
       <c r="BJ16" s="1">
         <v>8.639894</v>
       </c>
       <c r="BK16" s="1">
-        <v>1687.920000</v>
+        <v>1687.92</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1059.390000</v>
+        <v>-1059.3900000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>31114.414258</v>
+        <v>31114.414258000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.642893</v>
+        <v>8.6428930000000008</v>
       </c>
       <c r="BP16" s="1">
-        <v>1981.540000</v>
+        <v>1981.54</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1833.210000</v>
+        <v>-1833.21</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>31124.941844</v>
+        <v>31124.941844000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.645817</v>
+        <v>8.6458169999999992</v>
       </c>
       <c r="BU16" s="1">
-        <v>2368.290000</v>
+        <v>2368.29</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2724.510000</v>
+        <v>-2724.51</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>31135.697093</v>
+        <v>31135.697092999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.648805</v>
+        <v>8.6488049999999994</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2850.730000</v>
+        <v>2850.73</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3704.790000</v>
+        <v>-3704.79</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>31148.555875</v>
+        <v>31148.555874999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.652377</v>
+        <v>8.6523769999999995</v>
       </c>
       <c r="CE16" s="1">
-        <v>4263.460000</v>
+        <v>4263.46</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6057.960000</v>
+        <v>-6057.96</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>30977.647893</v>
+        <v>30977.647893000001</v>
       </c>
       <c r="B17" s="1">
-        <v>8.604902</v>
+        <v>8.6049019999999992</v>
       </c>
       <c r="C17" s="1">
-        <v>1248.360000</v>
+        <v>1248.3599999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-308.880000</v>
+        <v>-308.88</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>30988.079751</v>
+        <v>30988.079751000001</v>
       </c>
       <c r="G17" s="1">
-        <v>8.607800</v>
+        <v>8.6077999999999992</v>
       </c>
       <c r="H17" s="1">
-        <v>1273.700000</v>
+        <v>1273.7</v>
       </c>
       <c r="I17" s="1">
-        <v>-266.596000</v>
+        <v>-266.596</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>30998.553293</v>
+        <v>30998.553293000001</v>
       </c>
       <c r="L17" s="1">
-        <v>8.610709</v>
+        <v>8.6107089999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1308.860000</v>
+        <v>1308.8599999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.511000</v>
+        <v>-203.511</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>31009.202381</v>
+        <v>31009.202380999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.613667</v>
+        <v>8.6136669999999995</v>
       </c>
       <c r="R17" s="1">
-        <v>1320.470000</v>
+        <v>1320.47</v>
       </c>
       <c r="S17" s="1">
-        <v>-185.085000</v>
+        <v>-185.08500000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>31019.706169</v>
+        <v>31019.706169000001</v>
       </c>
       <c r="V17" s="1">
-        <v>8.616585</v>
+        <v>8.6165850000000006</v>
       </c>
       <c r="W17" s="1">
-        <v>1333.600000</v>
+        <v>1333.6</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.309000</v>
+        <v>-171.309</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>31029.877155</v>
+        <v>31029.877154999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.619410</v>
+        <v>8.6194100000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>1350.690000</v>
+        <v>1350.69</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.978000</v>
+        <v>-168.97800000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>31040.082803</v>
+        <v>31040.082803000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.622245</v>
+        <v>8.6222449999999995</v>
       </c>
       <c r="AG17" s="1">
-        <v>1363.500000</v>
+        <v>1363.5</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.616000</v>
+        <v>-178.61600000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>31050.277573</v>
+        <v>31050.277572999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.625077</v>
+        <v>8.6250769999999992</v>
       </c>
       <c r="AL17" s="1">
-        <v>1384.030000</v>
+        <v>1384.03</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.458000</v>
+        <v>-208.458</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>31060.758041</v>
+        <v>31060.758041000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.627988</v>
+        <v>8.6279880000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1405.610000</v>
+        <v>1405.61</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.271000</v>
+        <v>-252.27099999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>31071.476089</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.630966</v>
+        <v>8.6309660000000008</v>
       </c>
       <c r="AV17" s="1">
-        <v>1430.030000</v>
+        <v>1430.03</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.358000</v>
+        <v>-312.358</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>31082.462011</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.634017</v>
+        <v>8.6340170000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1449.290000</v>
+        <v>1449.29</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.521000</v>
+        <v>-364.52100000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>31093.130925</v>
+        <v>31093.130925000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.636981</v>
+        <v>8.6369810000000005</v>
       </c>
       <c r="BF17" s="1">
-        <v>1534.190000</v>
+        <v>1534.19</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.113000</v>
+        <v>-613.11300000000006</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>31103.991824</v>
+        <v>31103.991824000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.639998</v>
+        <v>8.6399980000000003</v>
       </c>
       <c r="BK17" s="1">
-        <v>1687.950000</v>
+        <v>1687.95</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1059.320000</v>
+        <v>-1059.32</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>31114.835887</v>
+        <v>31114.835887000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.643010</v>
+        <v>8.6430100000000003</v>
       </c>
       <c r="BP17" s="1">
-        <v>1981.420000</v>
+        <v>1981.42</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1833.110000</v>
+        <v>-1833.11</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>31125.668979</v>
+        <v>31125.668978999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.646019</v>
+        <v>8.6460190000000008</v>
       </c>
       <c r="BU17" s="1">
-        <v>2368.280000</v>
+        <v>2368.2800000000002</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2724.760000</v>
+        <v>-2724.76</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>31136.430716</v>
+        <v>31136.430715999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.649009</v>
+        <v>8.6490089999999995</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2851.040000</v>
+        <v>2851.04</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3704.280000</v>
+        <v>-3704.28</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>31148.762212</v>
+        <v>31148.762212000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.652434</v>
+        <v>8.6524339999999995</v>
       </c>
       <c r="CE17" s="1">
-        <v>4266.250000</v>
+        <v>4266.25</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6071.910000</v>
+        <v>-6071.91</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>30977.991126</v>
+        <v>30977.991126000001</v>
       </c>
       <c r="B18" s="1">
-        <v>8.604998</v>
+        <v>8.6049980000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.900000</v>
+        <v>1247.9000000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-308.573000</v>
+        <v>-308.57299999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>30988.424006</v>
+        <v>30988.424006000001</v>
       </c>
       <c r="G18" s="1">
-        <v>8.607896</v>
+        <v>8.6078960000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1272.300000</v>
+        <v>1272.3</v>
       </c>
       <c r="I18" s="1">
-        <v>-265.893000</v>
+        <v>-265.89299999999997</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>30998.969449</v>
       </c>
       <c r="L18" s="1">
-        <v>8.610825</v>
+        <v>8.6108250000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1308.620000</v>
+        <v>1308.6199999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.407000</v>
+        <v>-203.40700000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>31009.477163</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.613744</v>
+        <v>8.6137440000000005</v>
       </c>
       <c r="R18" s="1">
-        <v>1320.460000</v>
+        <v>1320.46</v>
       </c>
       <c r="S18" s="1">
-        <v>-185.119000</v>
+        <v>-185.119</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>31019.975486</v>
+        <v>31019.975485999999</v>
       </c>
       <c r="V18" s="1">
-        <v>8.616660</v>
+        <v>8.6166599999999995</v>
       </c>
       <c r="W18" s="1">
-        <v>1333.650000</v>
+        <v>1333.65</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.320000</v>
+        <v>-171.32</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>31030.225344</v>
+        <v>31030.225343999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.619507</v>
+        <v>8.6195070000000005</v>
       </c>
       <c r="AB18" s="1">
-        <v>1350.730000</v>
+        <v>1350.73</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.916000</v>
+        <v>-168.916</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>31040.411154</v>
+        <v>31040.411154000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.622336</v>
+        <v>8.6223360000000007</v>
       </c>
       <c r="AG18" s="1">
-        <v>1363.590000</v>
+        <v>1363.59</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.573000</v>
+        <v>-178.57300000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>31050.625270</v>
+        <v>31050.62527</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.625174</v>
+        <v>8.6251739999999995</v>
       </c>
       <c r="AL18" s="1">
-        <v>1384.060000</v>
+        <v>1384.06</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.458000</v>
+        <v>-208.458</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>31061.486698</v>
+        <v>31061.486698000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.628191</v>
+        <v>8.6281909999999993</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1405.600000</v>
+        <v>1405.6</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.300000</v>
+        <v>-252.3</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>31072.208184</v>
+        <v>31072.208183999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.631169</v>
+        <v>8.6311689999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1430.070000</v>
+        <v>1430.07</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.332000</v>
+        <v>-312.33199999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>31082.843402</v>
+        <v>31082.843401999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.634123</v>
+        <v>8.6341230000000007</v>
       </c>
       <c r="BA18" s="1">
-        <v>1449.300000</v>
+        <v>1449.3</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.455000</v>
+        <v>-364.45499999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>31093.492052</v>
+        <v>31093.492052000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.637081</v>
+        <v>8.6370810000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1534.220000</v>
+        <v>1534.22</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.108000</v>
+        <v>-613.10799999999995</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>31104.368286</v>
+        <v>31104.368286000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.640102</v>
+        <v>8.6401020000000006</v>
       </c>
       <c r="BK18" s="1">
-        <v>1687.980000</v>
+        <v>1687.98</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1059.280000</v>
+        <v>-1059.28</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>31115.542655</v>
+        <v>31115.542655000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.643206</v>
+        <v>8.6432059999999993</v>
       </c>
       <c r="BP18" s="1">
-        <v>1981.420000</v>
+        <v>1981.42</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1833.210000</v>
+        <v>-1833.21</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>31125.797443</v>
+        <v>31125.797442999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.646055</v>
+        <v>8.6460550000000005</v>
       </c>
       <c r="BU18" s="1">
-        <v>2368.060000</v>
+        <v>2368.06</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2724.220000</v>
+        <v>-2724.22</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>31136.544786</v>
+        <v>31136.544785999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.649040</v>
+        <v>8.6490399999999994</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2851.190000</v>
+        <v>2851.19</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3704.570000</v>
+        <v>-3704.57</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>31149.280530</v>
+        <v>31149.28053</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.652578</v>
+        <v>8.6525780000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4282.030000</v>
+        <v>4282.03</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6068.270000</v>
+        <v>-6068.27</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>30978.418677</v>
+        <v>30978.418677000001</v>
       </c>
       <c r="B19" s="1">
-        <v>8.605116</v>
+        <v>8.6051160000000007</v>
       </c>
       <c r="C19" s="1">
-        <v>1248.080000</v>
+        <v>1248.08</v>
       </c>
       <c r="D19" s="1">
-        <v>-308.790000</v>
+        <v>-308.79000000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>30988.847558</v>
+        <v>30988.847558000001</v>
       </c>
       <c r="G19" s="1">
-        <v>8.608013</v>
+        <v>8.6080129999999997</v>
       </c>
       <c r="H19" s="1">
-        <v>1273.720000</v>
+        <v>1273.72</v>
       </c>
       <c r="I19" s="1">
-        <v>-266.298000</v>
+        <v>-266.298</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>30999.263545</v>
+        <v>30999.263545000002</v>
       </c>
       <c r="L19" s="1">
-        <v>8.610907</v>
+        <v>8.6109069999999992</v>
       </c>
       <c r="M19" s="1">
-        <v>1308.540000</v>
+        <v>1308.54</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.357000</v>
+        <v>-203.357</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>31009.825850</v>
+        <v>31009.825850000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.613841</v>
+        <v>8.6138410000000007</v>
       </c>
       <c r="R19" s="1">
-        <v>1320.490000</v>
+        <v>1320.49</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.981000</v>
+        <v>-184.98099999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>31020.321694</v>
+        <v>31020.321693999998</v>
       </c>
       <c r="V19" s="1">
-        <v>8.616756</v>
+        <v>8.6167560000000005</v>
       </c>
       <c r="W19" s="1">
-        <v>1333.620000</v>
+        <v>1333.62</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.263000</v>
+        <v>-171.26300000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>31030.575487</v>
+        <v>31030.575486999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.619604</v>
+        <v>8.6196040000000007</v>
       </c>
       <c r="AB19" s="1">
-        <v>1350.730000</v>
+        <v>1350.73</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.980000</v>
+        <v>-168.98</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>31041.097649</v>
+        <v>31041.097648999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.622527</v>
+        <v>8.6225269999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>1363.620000</v>
+        <v>1363.62</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.582000</v>
+        <v>-178.58199999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>31051.320166</v>
+        <v>31051.320166000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.625367</v>
+        <v>8.6253670000000007</v>
       </c>
       <c r="AL19" s="1">
-        <v>1384.040000</v>
+        <v>1384.04</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.443000</v>
+        <v>-208.44300000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>31061.866102</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.628296</v>
+        <v>8.6282960000000006</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1405.590000</v>
+        <v>1405.59</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.276000</v>
+        <v>-252.27600000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>31072.598040</v>
+        <v>31072.598040000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.631277</v>
+        <v>8.6312770000000008</v>
       </c>
       <c r="AV19" s="1">
-        <v>1430.040000</v>
+        <v>1430.04</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.312000</v>
+        <v>-312.31200000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>31083.227337</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.634230</v>
+        <v>8.6342300000000005</v>
       </c>
       <c r="BA19" s="1">
-        <v>1449.310000</v>
+        <v>1449.31</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.434000</v>
+        <v>-364.43400000000003</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>31094.166076</v>
+        <v>31094.166076000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.637268</v>
+        <v>8.6372680000000006</v>
       </c>
       <c r="BF19" s="1">
-        <v>1534.260000</v>
+        <v>1534.26</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.074000</v>
+        <v>-613.07399999999996</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>31105.069629</v>
+        <v>31105.069629000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.640297</v>
+        <v>8.6402970000000003</v>
       </c>
       <c r="BK19" s="1">
-        <v>1687.980000</v>
+        <v>1687.98</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1059.360000</v>
+        <v>-1059.3599999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>31115.653759</v>
+        <v>31115.653759000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.643237</v>
+        <v>8.6432369999999992</v>
       </c>
       <c r="BP19" s="1">
-        <v>1981.330000</v>
+        <v>1981.33</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1833.130000</v>
+        <v>-1833.13</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>31126.210113</v>
+        <v>31126.210113000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.646169</v>
+        <v>8.6461690000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>2367.920000</v>
+        <v>2367.92</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2724.620000</v>
+        <v>-2724.62</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>31136.977790</v>
+        <v>31136.977790000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.649160</v>
+        <v>8.6491600000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2850.670000</v>
+        <v>2850.67</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3703.980000</v>
+        <v>-3703.98</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>31149.798354</v>
+        <v>31149.798353999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.652722</v>
+        <v>8.6527220000000007</v>
       </c>
       <c r="CE19" s="1">
-        <v>4277.160000</v>
+        <v>4277.16</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6050.970000</v>
+        <v>-6050.97</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>30978.694948</v>
       </c>
       <c r="B20" s="1">
-        <v>8.605193</v>
+        <v>8.6051929999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1248.010000</v>
+        <v>1248.01</v>
       </c>
       <c r="D20" s="1">
-        <v>-308.430000</v>
+        <v>-308.43</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>30989.123830</v>
+        <v>30989.12383</v>
       </c>
       <c r="G20" s="1">
-        <v>8.608090</v>
+        <v>8.6080900000000007</v>
       </c>
       <c r="H20" s="1">
-        <v>1273.200000</v>
+        <v>1273.2</v>
       </c>
       <c r="I20" s="1">
-        <v>-266.710000</v>
+        <v>-266.70999999999998</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>30999.609754</v>
+        <v>30999.609754000001</v>
       </c>
       <c r="L20" s="1">
-        <v>8.611003</v>
+        <v>8.6110030000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1308.850000</v>
+        <v>1308.8499999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.498000</v>
+        <v>-203.49799999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>31010.173052</v>
+        <v>31010.173051999998</v>
       </c>
       <c r="Q20" s="1">
         <v>8.613937</v>
       </c>
       <c r="R20" s="1">
-        <v>1320.540000</v>
+        <v>1320.54</v>
       </c>
       <c r="S20" s="1">
-        <v>-185.028000</v>
+        <v>-185.02799999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>31020.662941</v>
+        <v>31020.662940999999</v>
       </c>
       <c r="V20" s="1">
-        <v>8.616851</v>
+        <v>8.6168510000000005</v>
       </c>
       <c r="W20" s="1">
-        <v>1333.560000</v>
+        <v>1333.56</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.268000</v>
+        <v>-171.268</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>31031.269918</v>
+        <v>31031.269918000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.619797</v>
+        <v>8.6197970000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>1350.760000</v>
+        <v>1350.76</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.802000</v>
+        <v>-168.80199999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>31041.441378</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.622623</v>
+        <v>8.6226230000000008</v>
       </c>
       <c r="AG20" s="1">
-        <v>1363.550000</v>
+        <v>1363.55</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.616000</v>
+        <v>-178.61600000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>31051.672821</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.625465</v>
+        <v>8.6254650000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1384.020000</v>
+        <v>1384.02</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.435000</v>
+        <v>-208.435</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>31062.225207</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.628396</v>
+        <v>8.6283960000000004</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1405.590000</v>
+        <v>1405.59</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.262000</v>
+        <v>-252.262</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>31072.993351</v>
+        <v>31072.993351000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.631387</v>
+        <v>8.6313870000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1430.080000</v>
+        <v>1430.08</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.297000</v>
+        <v>-312.29700000000003</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>31083.902856</v>
+        <v>31083.902856000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.634417</v>
+        <v>8.6344169999999991</v>
       </c>
       <c r="BA20" s="1">
-        <v>1449.310000</v>
+        <v>1449.31</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.450000</v>
+        <v>-364.45</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>31094.601564</v>
+        <v>31094.601564000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.637389</v>
+        <v>8.6373890000000006</v>
       </c>
       <c r="BF20" s="1">
-        <v>1534.200000</v>
+        <v>1534.2</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.125000</v>
+        <v>-613.125</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>31105.517020</v>
+        <v>31105.517019999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.640421</v>
+        <v>8.6404209999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1687.890000</v>
+        <v>1687.89</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1059.350000</v>
+        <v>-1059.3499999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>31116.075887</v>
+        <v>31116.075886999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.643354</v>
+        <v>8.6433540000000004</v>
       </c>
       <c r="BP20" s="1">
-        <v>1981.500000</v>
+        <v>1981.5</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1833.090000</v>
+        <v>-1833.09</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>31126.624803</v>
+        <v>31126.624802999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.646285</v>
+        <v>8.6462850000000007</v>
       </c>
       <c r="BU20" s="1">
-        <v>2367.790000</v>
+        <v>2367.79</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2724.720000</v>
+        <v>-2724.72</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>31137.398867</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.649277</v>
+        <v>8.6492769999999997</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2850.670000</v>
+        <v>2850.67</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3704.520000</v>
+        <v>-3704.52</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>31150.314194</v>
+        <v>31150.314193999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.652865</v>
+        <v>8.6528650000000003</v>
       </c>
       <c r="CE20" s="1">
-        <v>4280.900000</v>
+        <v>4280.8999999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6058.450000</v>
+        <v>-6058.45</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>30979.039195</v>
+        <v>30979.039195000001</v>
       </c>
       <c r="B21" s="1">
-        <v>8.605289</v>
+        <v>8.6052890000000009</v>
       </c>
       <c r="C21" s="1">
-        <v>1247.770000</v>
+        <v>1247.77</v>
       </c>
       <c r="D21" s="1">
-        <v>-308.624000</v>
+        <v>-308.62400000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>30989.469542</v>
+        <v>30989.469541999999</v>
       </c>
       <c r="G21" s="1">
-        <v>8.608186</v>
+        <v>8.6081859999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1273.750000</v>
+        <v>1273.75</v>
       </c>
       <c r="I21" s="1">
-        <v>-266.318000</v>
+        <v>-266.31799999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>30999.955992</v>
+        <v>30999.955991999999</v>
       </c>
       <c r="L21" s="1">
-        <v>8.611099</v>
+        <v>8.6110989999999994</v>
       </c>
       <c r="M21" s="1">
-        <v>1308.510000</v>
+        <v>1308.51</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.603000</v>
+        <v>-203.60300000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>31010.868939</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.614130</v>
+        <v>8.6141299999999994</v>
       </c>
       <c r="R21" s="1">
-        <v>1320.570000</v>
+        <v>1320.57</v>
       </c>
       <c r="S21" s="1">
-        <v>-185.052000</v>
+        <v>-185.05199999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>31021.352176</v>
       </c>
       <c r="V21" s="1">
-        <v>8.617042</v>
+        <v>8.6170419999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>1333.430000</v>
+        <v>1333.43</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.430000</v>
+        <v>-171.43</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>31031.616130</v>
+        <v>31031.616129999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.619893</v>
+        <v>8.6198929999999994</v>
       </c>
       <c r="AB21" s="1">
-        <v>1350.630000</v>
+        <v>1350.63</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.665000</v>
+        <v>-168.66499999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>31041.786562</v>
+        <v>31041.786562000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.622718</v>
+        <v>8.6227180000000008</v>
       </c>
       <c r="AG21" s="1">
-        <v>1363.500000</v>
+        <v>1363.5</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.620000</v>
+        <v>-178.62</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>31052.023522</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.625562</v>
+        <v>8.6255620000000004</v>
       </c>
       <c r="AL21" s="1">
-        <v>1384.060000</v>
+        <v>1384.06</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.461000</v>
+        <v>-208.46100000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>31062.888854</v>
+        <v>31062.888854000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.628580</v>
+        <v>8.6285799999999995</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1405.610000</v>
+        <v>1405.61</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.267000</v>
+        <v>-252.267</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>31073.461079</v>
+        <v>31073.461079000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.631517</v>
+        <v>8.6315170000000006</v>
       </c>
       <c r="AV21" s="1">
-        <v>1430.020000</v>
+        <v>1430.02</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.370000</v>
+        <v>-312.37</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>31084.303657</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.634529</v>
+        <v>8.6345290000000006</v>
       </c>
       <c r="BA21" s="1">
-        <v>1449.310000</v>
+        <v>1449.31</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.483000</v>
+        <v>-364.483</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>31094.961198</v>
+        <v>31094.961198000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.637489</v>
+        <v>8.6374890000000004</v>
       </c>
       <c r="BF21" s="1">
-        <v>1534.210000</v>
+        <v>1534.21</v>
       </c>
       <c r="BG21" s="1">
-        <v>-613.071000</v>
+        <v>-613.07100000000003</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>31105.927212</v>
+        <v>31105.927211999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.640535</v>
+        <v>8.6405349999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1687.970000</v>
+        <v>1687.97</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1059.260000</v>
+        <v>-1059.26</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>31116.473678</v>
+        <v>31116.473677999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.643465</v>
+        <v>8.6434650000000008</v>
       </c>
       <c r="BP21" s="1">
-        <v>1981.480000</v>
+        <v>1981.48</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1833.180000</v>
+        <v>-1833.18</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>31127.045909</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.646402</v>
+        <v>8.6464020000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2367.740000</v>
+        <v>2367.7399999999998</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2724.330000</v>
+        <v>-2724.33</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>31137.820497</v>
+        <v>31137.820497000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.649395</v>
+        <v>8.6493950000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2850.530000</v>
+        <v>2850.53</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3703.920000</v>
+        <v>-3703.92</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>31150.867763</v>
+        <v>31150.867762999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.653019</v>
+        <v>8.6530190000000005</v>
       </c>
       <c r="CE21" s="1">
-        <v>4280.960000</v>
+        <v>4280.96</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6067.870000</v>
+        <v>-6067.87</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>30979.378964</v>
       </c>
       <c r="B22" s="1">
-        <v>8.605383</v>
+        <v>8.6053829999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1248.180000</v>
+        <v>1248.18</v>
       </c>
       <c r="D22" s="1">
-        <v>-308.743000</v>
+        <v>-308.74299999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>30989.810789</v>
+        <v>30989.810788999999</v>
       </c>
       <c r="G22" s="1">
-        <v>8.608281</v>
+        <v>8.6082809999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>1272.760000</v>
+        <v>1272.76</v>
       </c>
       <c r="I22" s="1">
-        <v>-267.072000</v>
+        <v>-267.072</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>31000.648872</v>
+        <v>31000.648872000002</v>
       </c>
       <c r="L22" s="1">
-        <v>8.611291</v>
+        <v>8.6112909999999996</v>
       </c>
       <c r="M22" s="1">
-        <v>1309.010000</v>
+        <v>1309.01</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.461000</v>
+        <v>-203.46100000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>31011.219120</v>
+        <v>31011.219120000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.614228</v>
+        <v>8.6142280000000007</v>
       </c>
       <c r="R22" s="1">
-        <v>1320.530000</v>
+        <v>1320.53</v>
       </c>
       <c r="S22" s="1">
-        <v>-185.168000</v>
+        <v>-185.16800000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>31021.695148</v>
+        <v>31021.695147999999</v>
       </c>
       <c r="V22" s="1">
-        <v>8.617138</v>
+        <v>8.6171380000000006</v>
       </c>
       <c r="W22" s="1">
-        <v>1333.510000</v>
+        <v>1333.51</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.284000</v>
+        <v>-171.28399999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>31031.967978</v>
+        <v>31031.967978000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.619991</v>
+        <v>8.6199910000000006</v>
       </c>
       <c r="AB22" s="1">
-        <v>1350.560000</v>
+        <v>1350.56</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.914000</v>
+        <v>-168.91399999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>31042.437840</v>
+        <v>31042.437839999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.622899</v>
+        <v>8.6228990000000003</v>
       </c>
       <c r="AG22" s="1">
-        <v>1363.500000</v>
+        <v>1363.5</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.632000</v>
+        <v>-178.63200000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>31052.678246</v>
+        <v>31052.678245999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.625744</v>
+        <v>8.6257439999999992</v>
       </c>
       <c r="AL22" s="1">
-        <v>1384.020000</v>
+        <v>1384.02</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.427000</v>
+        <v>-208.42699999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>31063.304501</v>
+        <v>31063.304500999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>8.628696</v>
+        <v>8.6286959999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1405.580000</v>
+        <v>1405.58</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.275000</v>
+        <v>-252.27500000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>31073.721510</v>
+        <v>31073.721509999999</v>
       </c>
       <c r="AU22" s="1">
         <v>8.631589</v>
       </c>
       <c r="AV22" s="1">
-        <v>1430.040000</v>
+        <v>1430.04</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.342000</v>
+        <v>-312.34199999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>31084.691528</v>
+        <v>31084.691527999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.634637</v>
+        <v>8.6346369999999997</v>
       </c>
       <c r="BA22" s="1">
-        <v>1449.320000</v>
+        <v>1449.32</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.435000</v>
+        <v>-364.435</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>31095.324234</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.637590</v>
+        <v>8.6375899999999994</v>
       </c>
       <c r="BF22" s="1">
-        <v>1534.240000</v>
+        <v>1534.24</v>
       </c>
       <c r="BG22" s="1">
-        <v>-613.084000</v>
+        <v>-613.08399999999995</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>31106.300205</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.640639</v>
+        <v>8.6406390000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1687.920000</v>
+        <v>1687.92</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1059.370000</v>
+        <v>-1059.3699999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>31116.895742</v>
+        <v>31116.895742000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.643582</v>
+        <v>8.6435820000000003</v>
       </c>
       <c r="BP22" s="1">
-        <v>1981.260000</v>
+        <v>1981.26</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1832.990000</v>
+        <v>-1832.99</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>31127.456065</v>
+        <v>31127.456064999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.646516</v>
+        <v>8.6465160000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2367.730000</v>
+        <v>2367.73</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2724.410000</v>
+        <v>-2724.41</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>31138.274306</v>
+        <v>31138.274305999999</v>
       </c>
       <c r="BY22" s="1">
         <v>8.649521</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2851.200000</v>
+        <v>2851.2</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3704.090000</v>
+        <v>-3704.09</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>31151.399441</v>
+        <v>31151.399441000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.653167</v>
+        <v>8.6531669999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>4276.700000</v>
+        <v>4276.7</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6050.920000</v>
+        <v>-6050.92</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>30980.063410</v>
+        <v>30980.063409999999</v>
       </c>
       <c r="B23" s="1">
-        <v>8.605573</v>
+        <v>8.6055729999999997</v>
       </c>
       <c r="C23" s="1">
-        <v>1248.040000</v>
+        <v>1248.04</v>
       </c>
       <c r="D23" s="1">
-        <v>-308.521000</v>
+        <v>-308.52100000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>30990.499237</v>
       </c>
       <c r="G23" s="1">
-        <v>8.608472</v>
+        <v>8.6084720000000008</v>
       </c>
       <c r="H23" s="1">
-        <v>1273.560000</v>
+        <v>1273.56</v>
       </c>
       <c r="I23" s="1">
-        <v>-265.905000</v>
+        <v>-265.90499999999997</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>31000.993126</v>
+        <v>31000.993126000001</v>
       </c>
       <c r="L23" s="1">
-        <v>8.611387</v>
+        <v>8.6113870000000006</v>
       </c>
       <c r="M23" s="1">
-        <v>1308.800000</v>
+        <v>1308.8</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.467000</v>
+        <v>-203.46700000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>31011.566808</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.614324</v>
+        <v>8.6143239999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1320.470000</v>
+        <v>1320.47</v>
       </c>
       <c r="S23" s="1">
-        <v>-185.110000</v>
+        <v>-185.11</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>31022.037851</v>
+        <v>31022.037851000001</v>
       </c>
       <c r="V23" s="1">
-        <v>8.617233</v>
+        <v>8.6172330000000006</v>
       </c>
       <c r="W23" s="1">
-        <v>1333.560000</v>
+        <v>1333.56</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.336000</v>
+        <v>-171.33600000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>31032.637357</v>
@@ -5953,345 +6369,345 @@
         <v>8.620177</v>
       </c>
       <c r="AB23" s="1">
-        <v>1350.700000</v>
+        <v>1350.7</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.952000</v>
+        <v>-168.952</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>31042.819728</v>
+        <v>31042.819727999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.623005</v>
+        <v>8.6230049999999991</v>
       </c>
       <c r="AG23" s="1">
-        <v>1363.550000</v>
+        <v>1363.55</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.579000</v>
+        <v>-178.57900000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>31053.066579</v>
+        <v>31053.066578999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.625852</v>
+        <v>8.6258520000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1384.010000</v>
+        <v>1384.01</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.438000</v>
+        <v>-208.43799999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>31063.688438</v>
+        <v>31063.688438000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.628802</v>
+        <v>8.6288020000000003</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1405.580000</v>
+        <v>1405.58</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.292000</v>
+        <v>-252.292</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>31074.055317</v>
+        <v>31074.055316999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.631682</v>
+        <v>8.6316819999999996</v>
       </c>
       <c r="AV23" s="1">
-        <v>1430.030000</v>
+        <v>1430.03</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.344000</v>
+        <v>-312.34399999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>31085.050599</v>
+        <v>31085.050598999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.634736</v>
+        <v>8.6347360000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1449.390000</v>
+        <v>1449.39</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.426000</v>
+        <v>-364.42599999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>31095.743353</v>
+        <v>31095.743353000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.637706</v>
+        <v>8.6377059999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1534.230000</v>
+        <v>1534.23</v>
       </c>
       <c r="BG23" s="1">
-        <v>-613.127000</v>
+        <v>-613.12699999999995</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>31106.792731</v>
+        <v>31106.792731000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>8.640776</v>
+        <v>8.6407760000000007</v>
       </c>
       <c r="BK23" s="1">
-        <v>1687.990000</v>
+        <v>1687.99</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1059.360000</v>
+        <v>-1059.3599999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>31117.296510</v>
+        <v>31117.29651</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.643693</v>
+        <v>8.6436930000000007</v>
       </c>
       <c r="BP23" s="1">
-        <v>1981.500000</v>
+        <v>1981.5</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1833.070000</v>
+        <v>-1833.07</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>31127.867784</v>
+        <v>31127.867783999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.646630</v>
+        <v>8.64663</v>
       </c>
       <c r="BU23" s="1">
-        <v>2367.410000</v>
+        <v>2367.41</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2724.320000</v>
+        <v>-2724.32</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>31138.694912</v>
+        <v>31138.694911999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.649637</v>
+        <v>8.6496370000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2851.320000</v>
+        <v>2851.32</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3704.580000</v>
+        <v>-3704.58</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>31151.913792</v>
+        <v>31151.913791999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.653309</v>
+        <v>8.6533090000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4259.760000</v>
+        <v>4259.76</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6055.530000</v>
+        <v>-6055.53</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>30980.406677</v>
+        <v>30980.406676999999</v>
       </c>
       <c r="B24" s="1">
-        <v>8.605669</v>
+        <v>8.6056690000000007</v>
       </c>
       <c r="C24" s="1">
-        <v>1248.370000</v>
+        <v>1248.3699999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-308.869000</v>
+        <v>-308.86900000000003</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>30990.845443</v>
+        <v>30990.845442999998</v>
       </c>
       <c r="G24" s="1">
         <v>8.608568</v>
       </c>
       <c r="H24" s="1">
-        <v>1273.520000</v>
+        <v>1273.52</v>
       </c>
       <c r="I24" s="1">
-        <v>-265.979000</v>
+        <v>-265.97899999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>31001.342785</v>
+        <v>31001.342785000001</v>
       </c>
       <c r="L24" s="1">
-        <v>8.611484</v>
+        <v>8.6114840000000008</v>
       </c>
       <c r="M24" s="1">
-        <v>1308.790000</v>
+        <v>1308.79</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.438000</v>
+        <v>-203.43799999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>31012.223048</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.614506</v>
+        <v>8.6145060000000004</v>
       </c>
       <c r="R24" s="1">
-        <v>1320.470000</v>
+        <v>1320.47</v>
       </c>
       <c r="S24" s="1">
-        <v>-185.064000</v>
+        <v>-185.06399999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>31022.703979</v>
+        <v>31022.703979000002</v>
       </c>
       <c r="V24" s="1">
-        <v>8.617418</v>
+        <v>8.6174180000000007</v>
       </c>
       <c r="W24" s="1">
-        <v>1333.460000</v>
+        <v>1333.46</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.266000</v>
+        <v>-171.26599999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>31033.015836</v>
+        <v>31033.015835999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.620282</v>
+        <v>8.6202819999999996</v>
       </c>
       <c r="AB24" s="1">
-        <v>1350.730000</v>
+        <v>1350.73</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.825000</v>
+        <v>-168.82499999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>31043.162479</v>
+        <v>31043.162478999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.623101</v>
+        <v>8.6231010000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1363.550000</v>
+        <v>1363.55</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.572000</v>
+        <v>-178.572</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>31053.414291</v>
+        <v>31053.414291000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.625948</v>
+        <v>8.6259479999999993</v>
       </c>
       <c r="AL24" s="1">
-        <v>1384.020000</v>
+        <v>1384.02</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.448000</v>
+        <v>-208.44800000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>31064.045523</v>
+        <v>31064.045523000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.628902</v>
+        <v>8.6289020000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1405.590000</v>
+        <v>1405.59</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.246000</v>
+        <v>-252.24600000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>31074.482378</v>
+        <v>31074.482378000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.631801</v>
+        <v>8.6318009999999994</v>
       </c>
       <c r="AV24" s="1">
-        <v>1430.040000</v>
+        <v>1430.04</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.314000</v>
+        <v>-312.31400000000002</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>31085.471734</v>
+        <v>31085.471733999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.634853</v>
+        <v>8.6348529999999997</v>
       </c>
       <c r="BA24" s="1">
-        <v>1449.380000</v>
+        <v>1449.38</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.425000</v>
+        <v>-364.42500000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>31096.047928</v>
@@ -6300,604 +6716,605 @@
         <v>8.637791</v>
       </c>
       <c r="BF24" s="1">
-        <v>1534.220000</v>
+        <v>1534.22</v>
       </c>
       <c r="BG24" s="1">
-        <v>-613.078000</v>
+        <v>-613.07799999999997</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>31107.086362</v>
+        <v>31107.086361999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.640857</v>
+        <v>8.6408570000000005</v>
       </c>
       <c r="BK24" s="1">
-        <v>1687.980000</v>
+        <v>1687.98</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1059.270000</v>
+        <v>-1059.27</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>31117.716622</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.643810</v>
+        <v>8.6438100000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1981.240000</v>
+        <v>1981.24</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1833.040000</v>
+        <v>-1833.04</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>31128.285870</v>
+        <v>31128.28587</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.646746</v>
+        <v>8.6467460000000003</v>
       </c>
       <c r="BU24" s="1">
-        <v>2367.480000</v>
+        <v>2367.48</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2724.600000</v>
+        <v>-2724.6</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>31139.141645</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.649762</v>
+        <v>8.6497620000000008</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2851.580000</v>
+        <v>2851.58</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3703.830000</v>
+        <v>-3703.83</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>31152.434096</v>
+        <v>31152.434096000001</v>
       </c>
       <c r="CD24" s="1">
         <v>8.653454</v>
       </c>
       <c r="CE24" s="1">
-        <v>4265.740000</v>
+        <v>4265.74</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6072.090000</v>
+        <v>-6072.09</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>30980.748417</v>
+        <v>30980.748416999999</v>
       </c>
       <c r="B25" s="1">
-        <v>8.605763</v>
+        <v>8.6057629999999996</v>
       </c>
       <c r="C25" s="1">
-        <v>1247.940000</v>
+        <v>1247.94</v>
       </c>
       <c r="D25" s="1">
-        <v>-308.956000</v>
+        <v>-308.95600000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>30991.492724</v>
       </c>
       <c r="G25" s="1">
-        <v>8.608748</v>
+        <v>8.6087480000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>1273.170000</v>
+        <v>1273.17</v>
       </c>
       <c r="I25" s="1">
-        <v>-266.221000</v>
+        <v>-266.221</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>31001.999477</v>
+        <v>31001.999477000001</v>
       </c>
       <c r="L25" s="1">
-        <v>8.611667</v>
+        <v>8.6116670000000006</v>
       </c>
       <c r="M25" s="1">
-        <v>1308.590000</v>
+        <v>1308.5899999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.434000</v>
+        <v>-203.434</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>31012.611383</v>
+        <v>31012.611382999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.614614</v>
+        <v>8.6146139999999995</v>
       </c>
       <c r="R25" s="1">
-        <v>1320.560000</v>
+        <v>1320.56</v>
       </c>
       <c r="S25" s="1">
-        <v>-185.015000</v>
+        <v>-185.01499999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>31023.116649</v>
       </c>
       <c r="V25" s="1">
-        <v>8.617532</v>
+        <v>8.6175320000000006</v>
       </c>
       <c r="W25" s="1">
-        <v>1333.600000</v>
+        <v>1333.6</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.388000</v>
+        <v>-171.38800000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>31033.363036</v>
+        <v>31033.363035999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.620379</v>
+        <v>8.6203789999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>1350.740000</v>
+        <v>1350.74</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.095000</v>
+        <v>-169.095</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>31043.506686</v>
+        <v>31043.506686000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.623196</v>
+        <v>8.6231960000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1363.590000</v>
+        <v>1363.59</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.587000</v>
+        <v>-178.58699999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>31053.766929</v>
+        <v>31053.766929000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.626046</v>
+        <v>8.6260460000000005</v>
       </c>
       <c r="AL25" s="1">
-        <v>1384.090000</v>
+        <v>1384.09</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.445000</v>
+        <v>-208.44499999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>31064.469604</v>
+        <v>31064.469604000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.629019</v>
+        <v>8.6290189999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1405.610000</v>
+        <v>1405.61</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.268000</v>
+        <v>-252.268</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>31074.783945</v>
+        <v>31074.783944999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.631884</v>
+        <v>8.6318839999999994</v>
       </c>
       <c r="AV25" s="1">
-        <v>1430.030000</v>
+        <v>1430.03</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.343000</v>
+        <v>-312.34300000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>31085.769334</v>
+        <v>31085.769334000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.634936</v>
+        <v>8.6349359999999997</v>
       </c>
       <c r="BA25" s="1">
-        <v>1449.370000</v>
+        <v>1449.37</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.392000</v>
+        <v>-364.392</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>31096.407529</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.637891</v>
+        <v>8.6378909999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1534.200000</v>
+        <v>1534.2</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.086000</v>
+        <v>-613.08600000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>31107.461835</v>
+        <v>31107.461834999998</v>
       </c>
       <c r="BJ25" s="1">
         <v>8.640962</v>
       </c>
       <c r="BK25" s="1">
-        <v>1687.920000</v>
+        <v>1687.92</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1059.190000</v>
+        <v>-1059.19</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>31118.112429</v>
+        <v>31118.112429000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.643920</v>
+        <v>8.6439199999999996</v>
       </c>
       <c r="BP25" s="1">
-        <v>1981.430000</v>
+        <v>1981.43</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1833.030000</v>
+        <v>-1833.03</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>31128.702045</v>
+        <v>31128.702045000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.646862</v>
+        <v>8.6468620000000005</v>
       </c>
       <c r="BU25" s="1">
-        <v>2367.240000</v>
+        <v>2367.2399999999998</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2724.280000</v>
+        <v>-2724.28</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>31139.566879</v>
+        <v>31139.566879000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.649880</v>
+        <v>8.6498799999999996</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2850.740000</v>
+        <v>2850.74</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3704.320000</v>
+        <v>-3704.32</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>31152.955389</v>
+        <v>31152.955388999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.653599</v>
+        <v>8.6535989999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>4280.840000</v>
+        <v>4280.84</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6063.850000</v>
+        <v>-6063.85</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>30981.407568</v>
+        <v>30981.407567999999</v>
       </c>
       <c r="B26" s="1">
-        <v>8.605947</v>
+        <v>8.6059470000000005</v>
       </c>
       <c r="C26" s="1">
-        <v>1248.000000</v>
+        <v>1248</v>
       </c>
       <c r="D26" s="1">
-        <v>-308.509000</v>
+        <v>-308.50900000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>30991.878156</v>
+        <v>30991.878155999999</v>
       </c>
       <c r="G26" s="1">
-        <v>8.608855</v>
+        <v>8.6088550000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1273.500000</v>
+        <v>1273.5</v>
       </c>
       <c r="I26" s="1">
-        <v>-266.310000</v>
+        <v>-266.31</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>31002.377924</v>
       </c>
       <c r="L26" s="1">
-        <v>8.611772</v>
+        <v>8.6117720000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1309.370000</v>
+        <v>1309.3699999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-203.485000</v>
+        <v>-203.48500000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>31012.962055</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.614712</v>
+        <v>8.6147120000000008</v>
       </c>
       <c r="R26" s="1">
-        <v>1320.580000</v>
+        <v>1320.58</v>
       </c>
       <c r="S26" s="1">
-        <v>-185.061000</v>
+        <v>-185.06100000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>31023.415738</v>
       </c>
       <c r="V26" s="1">
-        <v>8.617615</v>
+        <v>8.6176150000000007</v>
       </c>
       <c r="W26" s="1">
-        <v>1333.590000</v>
+        <v>1333.59</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.372000</v>
+        <v>-171.37200000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>31033.709243</v>
+        <v>31033.709243000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.620475</v>
+        <v>8.6204750000000008</v>
       </c>
       <c r="AB26" s="1">
-        <v>1350.790000</v>
+        <v>1350.79</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.049000</v>
+        <v>-169.04900000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>31043.926797</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.623313</v>
+        <v>8.6233129999999996</v>
       </c>
       <c r="AG26" s="1">
-        <v>1363.570000</v>
+        <v>1363.57</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.653000</v>
+        <v>-178.65299999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>31054.185552</v>
+        <v>31054.185551999999</v>
       </c>
       <c r="AK26" s="1">
         <v>8.626163</v>
       </c>
       <c r="AL26" s="1">
-        <v>1384.070000</v>
+        <v>1384.07</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.432000</v>
+        <v>-208.43199999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>31064.768692</v>
+        <v>31064.768692000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.629102</v>
+        <v>8.6291019999999996</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1405.590000</v>
+        <v>1405.59</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.278000</v>
+        <v>-252.27799999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>31075.147478</v>
+        <v>31075.147477999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.631985</v>
+        <v>8.6319850000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1430.050000</v>
+        <v>1430.05</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.280000</v>
+        <v>-312.27999999999997</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>31086.128903</v>
+        <v>31086.128903000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.635036</v>
+        <v>8.6350359999999995</v>
       </c>
       <c r="BA26" s="1">
-        <v>1449.420000</v>
+        <v>1449.42</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.390000</v>
+        <v>-364.39</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>31096.770568</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.637992</v>
+        <v>8.6379920000000006</v>
       </c>
       <c r="BF26" s="1">
-        <v>1534.210000</v>
+        <v>1534.21</v>
       </c>
       <c r="BG26" s="1">
-        <v>-613.106000</v>
+        <v>-613.10599999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>31108.211786</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.641170</v>
+        <v>8.6411700000000007</v>
       </c>
       <c r="BK26" s="1">
-        <v>1687.880000</v>
+        <v>1687.88</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1059.280000</v>
+        <v>-1059.28</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>31118.542955</v>
+        <v>31118.542955000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.644040</v>
+        <v>8.6440400000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1981.490000</v>
+        <v>1981.49</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1833.050000</v>
+        <v>-1833.05</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>31129.117165</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.646977</v>
+        <v>8.6469769999999997</v>
       </c>
       <c r="BU26" s="1">
-        <v>2366.860000</v>
+        <v>2366.86</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2724.560000</v>
+        <v>-2724.56</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>31139.985012</v>
+        <v>31139.985012000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.649996</v>
+        <v>8.6499959999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2850.320000</v>
+        <v>2850.32</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3704.130000</v>
+        <v>-3704.13</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>31153.471725</v>
+        <v>31153.471724999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.653742</v>
+        <v>8.6537419999999994</v>
       </c>
       <c r="CE26" s="1">
-        <v>4269.570000</v>
+        <v>4269.57</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6050.450000</v>
+        <v>-6050.45</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>